--- a/data_clean/Aker 14.12.2020.xlsx
+++ b/data_clean/Aker 14.12.2020.xlsx
@@ -1083,7 +1083,7 @@
         <v>1.16239804146365</v>
       </c>
       <c r="K2">
-        <v>51.43203700086517</v>
+        <v>0.01432037000865173</v>
       </c>
       <c r="L2">
         <v>0.0003014130807446643</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1154,7 +1154,7 @@
         <v>1.16239804146365</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
         <v>0.09186503157780355</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1225,7 +1225,7 @@
         <v>1.16239804146365</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L4">
         <v>0.06788903932853131</v>
@@ -1255,13 +1255,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.000960614793468</v>
+        <v>0.0009606147934677622</v>
       </c>
       <c r="V4">
-        <v>1.000960614793468</v>
+        <v>0.0009606147934677622</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1296,7 +1296,7 @@
         <v>5.414999999999999</v>
       </c>
       <c r="K5">
-        <v>84.41153546375682</v>
+        <v>0.3441153546375681</v>
       </c>
       <c r="L5">
         <v>0.05047690857605865</v>
@@ -1326,13 +1326,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.000239923224568</v>
+        <v>0.0002399232245682281</v>
       </c>
       <c r="V5">
-        <v>1.000239923224568</v>
+        <v>0.0002399232245682281</v>
       </c>
       <c r="W5">
-        <v>0.9990421455938697</v>
+        <v>-0.0009578544061302763</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1367,7 +1367,7 @@
         <v>1.743813559322033</v>
       </c>
       <c r="K6">
-        <v>63.55437501930382</v>
+        <v>0.1355437501930382</v>
       </c>
       <c r="L6">
         <v>0.03538003379791901</v>
@@ -1397,13 +1397,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.9997601343247782</v>
+        <v>-0.0002398656752218287</v>
       </c>
       <c r="V6">
-        <v>0.9997601343247782</v>
+        <v>-0.0002398656752218287</v>
       </c>
       <c r="W6">
-        <v>0.9980824544582934</v>
+        <v>-0.001917545541706644</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1438,7 +1438,7 @@
         <v>4.241583407671721</v>
       </c>
       <c r="K7">
-        <v>80.92179552964141</v>
+        <v>0.3092179552964142</v>
       </c>
       <c r="L7">
         <v>0.03445654089584355</v>
@@ -1468,13 +1468,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.000959692898272</v>
+        <v>0.0009596928982724684</v>
       </c>
       <c r="V7">
-        <v>1.000959692898272</v>
+        <v>0.0009596928982724684</v>
       </c>
       <c r="W7">
-        <v>1.006724303554275</v>
+        <v>0.00672430355427478</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1509,7 +1509,7 @@
         <v>1.994337292213956</v>
       </c>
       <c r="K8">
-        <v>66.60362870274312</v>
+        <v>0.1660362870274312</v>
       </c>
       <c r="L8">
         <v>0.03276663505907383</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.000273935077387</v>
+        <v>0.0002739350773866001</v>
       </c>
       <c r="V8">
-        <v>1.000273935077387</v>
+        <v>0.0002739350773866001</v>
       </c>
       <c r="W8">
-        <v>0.9971374045801527</v>
+        <v>-0.002862595419847347</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1580,7 +1580,7 @@
         <v>2.180236597531489</v>
       </c>
       <c r="K9">
-        <v>68.55579862277531</v>
+        <v>0.1855579862277531</v>
       </c>
       <c r="L9">
         <v>0.03165103223123739</v>
@@ -1610,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000325208818294</v>
+        <v>0.0003252088182938984</v>
       </c>
       <c r="V9">
-        <v>1.000325208818294</v>
+        <v>0.0003252088182938984</v>
       </c>
       <c r="W9">
-        <v>1.000956937799043</v>
+        <v>0.000956937799043045</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1651,7 +1651,7 @@
         <v>2.571603556094718</v>
       </c>
       <c r="K10">
-        <v>72.00137181256966</v>
+        <v>0.2200137181256966</v>
       </c>
       <c r="L10">
         <v>0.03205824276799004</v>
@@ -1681,13 +1681,13 @@
         <v>0.3819444444444571</v>
       </c>
       <c r="U10">
-        <v>1.000465790979625</v>
+        <v>0.0004657909796248472</v>
       </c>
       <c r="V10">
-        <v>1.000465790979625</v>
+        <v>0.0004657909796248472</v>
       </c>
       <c r="W10">
-        <v>1.001912045889101</v>
+        <v>0.001912045889101321</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1722,7 +1722,7 @@
         <v>2.777586165864837</v>
       </c>
       <c r="K11">
-        <v>73.52806908717962</v>
+        <v>0.2352806908717961</v>
       </c>
       <c r="L11">
         <v>0.03333031472216837</v>
@@ -1752,13 +1752,13 @@
         <v>0.4500000000000455</v>
       </c>
       <c r="U11">
-        <v>1.000468234542939</v>
+        <v>0.0004682345429392054</v>
       </c>
       <c r="V11">
-        <v>1.000468234542939</v>
+        <v>0.0004682345429392054</v>
       </c>
       <c r="W11">
-        <v>1.000954198473282</v>
+        <v>0.0009541984732823749</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1793,7 +1793,7 @@
         <v>2.994409965622859</v>
       </c>
       <c r="K12">
-        <v>74.96501339105619</v>
+        <v>0.2496501339105619</v>
       </c>
       <c r="L12">
         <v>0.03512370787389566</v>
@@ -1823,13 +1823,13 @@
         <v>0.5795454545454959</v>
       </c>
       <c r="U12">
-        <v>1.000469949349903</v>
+        <v>0.0004699493499034091</v>
       </c>
       <c r="V12">
-        <v>1.000469949349903</v>
+        <v>0.0004699493499034091</v>
       </c>
       <c r="W12">
-        <v>1.00095328884652</v>
+        <v>0.0009532888465204614</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1864,7 +1864,7 @@
         <v>1.77740724928418</v>
       </c>
       <c r="K13">
-        <v>63.99519731009092</v>
+        <v>0.1399519731009092</v>
       </c>
       <c r="L13">
         <v>0.03508735752679448</v>
@@ -1894,13 +1894,13 @@
         <v>0.75</v>
       </c>
       <c r="U13">
-        <v>1.000152226861517</v>
+        <v>0.0001522268615170574</v>
       </c>
       <c r="V13">
-        <v>1.000152226861517</v>
+        <v>0.0001522268615170574</v>
       </c>
       <c r="W13">
-        <v>0.9971428571428571</v>
+        <v>-0.002857142857142891</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1935,7 +1935,7 @@
         <v>1.77740724928418</v>
       </c>
       <c r="K14">
-        <v>63.99519731009093</v>
+        <v>0.1399519731009093</v>
       </c>
       <c r="L14">
         <v>0.03399814409643494</v>
@@ -1965,13 +1965,13 @@
         <v>1.057692307692264</v>
       </c>
       <c r="U14">
-        <v>1.000128787739407</v>
+        <v>0.0001287877394073877</v>
       </c>
       <c r="V14">
-        <v>1.000128787739407</v>
+        <v>0.0001287877394073877</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2006,7 +2006,7 @@
         <v>1.777407249284179</v>
       </c>
       <c r="K15">
-        <v>63.99519731009092</v>
+        <v>0.1399519731009091</v>
       </c>
       <c r="L15">
         <v>0.03231427535433196</v>
@@ -2036,13 +2036,13 @@
         <v>0.9375</v>
       </c>
       <c r="U15">
-        <v>1.000110375275938</v>
+        <v>0.0001103752759381571</v>
       </c>
       <c r="V15">
-        <v>1.000110375275938</v>
+        <v>0.0001103752759381571</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2077,7 +2077,7 @@
         <v>2.093429901215861</v>
       </c>
       <c r="K16">
-        <v>67.67342296630179</v>
+        <v>0.1767342296630179</v>
       </c>
       <c r="L16">
         <v>0.0312150013263795</v>
@@ -2107,13 +2107,13 @@
         <v>1.070833333333326</v>
       </c>
       <c r="U16">
-        <v>1.000223178702375</v>
+        <v>0.0002231787023752041</v>
       </c>
       <c r="V16">
-        <v>1.000223178702375</v>
+        <v>0.0002231787023752041</v>
       </c>
       <c r="W16">
-        <v>1.001910219675263</v>
+        <v>0.001910219675262725</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2148,7 +2148,7 @@
         <v>2.093429901215862</v>
       </c>
       <c r="K17">
-        <v>67.67342296630179</v>
+        <v>0.1767342296630179</v>
       </c>
       <c r="L17">
         <v>0.0303593965098615</v>
@@ -2178,13 +2178,13 @@
         <v>1.15625</v>
       </c>
       <c r="U17">
-        <v>1.000195237791661</v>
+        <v>0.0001952377916614179</v>
       </c>
       <c r="V17">
-        <v>1.00070126227209</v>
+        <v>0.0007012622720898865</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2219,7 +2219,7 @@
         <v>1.781518442649966</v>
       </c>
       <c r="K18">
-        <v>64.0484138207872</v>
+        <v>0.1404841382078721</v>
       </c>
       <c r="L18">
         <v>0.02914299453888321</v>
@@ -2249,13 +2249,13 @@
         <v>0.84375</v>
       </c>
       <c r="U18">
-        <v>1.0001159950087</v>
+        <v>0.000115995008699521</v>
       </c>
       <c r="V18">
-        <v>1.000254825762885</v>
+        <v>0.0002548257628847139</v>
       </c>
       <c r="W18">
-        <v>0.9990467111534795</v>
+        <v>-0.0009532888465204614</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2290,7 +2290,7 @@
         <v>2.09519300221492</v>
       </c>
       <c r="K19">
-        <v>67.69183701034476</v>
+        <v>0.1769183701034476</v>
       </c>
       <c r="L19">
         <v>0.02850547428635337</v>
@@ -2320,13 +2320,13 @@
         <v>0.71875</v>
       </c>
       <c r="U19">
-        <v>1.000209313514155</v>
+        <v>0.0002093135141552072</v>
       </c>
       <c r="V19">
-        <v>1.000382141264888</v>
+        <v>0.0003821412648876699</v>
       </c>
       <c r="W19">
-        <v>1.001908396946565</v>
+        <v>0.001908396946564972</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2361,7 +2361,7 @@
         <v>2.095193002214921</v>
       </c>
       <c r="K20">
-        <v>67.69183701034476</v>
+        <v>0.1769183701034476</v>
       </c>
       <c r="L20">
         <v>0.0281123254830873</v>
@@ -2391,13 +2391,13 @@
         <v>0.53125</v>
       </c>
       <c r="U20">
-        <v>1.000187241320526</v>
+        <v>0.0001872413205263879</v>
       </c>
       <c r="V20">
-        <v>1.000445661170179</v>
+        <v>0.000445661170178635</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2432,7 +2432,7 @@
         <v>2.268973921641488</v>
       </c>
       <c r="K21">
-        <v>69.40936134792234</v>
+        <v>0.1940936134792234</v>
       </c>
       <c r="L21">
         <v>0.02815420805869569</v>
@@ -2462,13 +2462,13 @@
         <v>0.53125</v>
       </c>
       <c r="U21">
-        <v>1.000216265151134</v>
+        <v>0.000216265151134154</v>
       </c>
       <c r="V21">
-        <v>1.000636375206822</v>
+        <v>0.0006363752068219153</v>
       </c>
       <c r="W21">
-        <v>1.000952380952381</v>
+        <v>0.0009523809523810378</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2503,7 +2503,7 @@
         <v>2.451901205248402</v>
       </c>
       <c r="K22">
-        <v>71.03045711506569</v>
+        <v>0.2103045711506568</v>
       </c>
       <c r="L22">
         <v>0.02870514262137052</v>
@@ -2533,13 +2533,13 @@
         <v>0.5</v>
       </c>
       <c r="U22">
-        <v>1.000241120619453</v>
+        <v>0.0002411206194525839</v>
       </c>
       <c r="V22">
-        <v>1.000254388196388</v>
+        <v>0.0002543881963876782</v>
       </c>
       <c r="W22">
-        <v>1.000951474785918</v>
+        <v>0.0009514747859182826</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2574,7 +2574,7 @@
         <v>1.770185097216347</v>
       </c>
       <c r="K23">
-        <v>63.90132915649349</v>
+        <v>0.1390132915649349</v>
       </c>
       <c r="L23">
         <v>0.02864051400255329</v>
@@ -2604,13 +2604,13 @@
         <v>0.625</v>
       </c>
       <c r="U23">
-        <v>1.000132315605799</v>
+        <v>0.0001323156057986274</v>
       </c>
       <c r="V23">
-        <v>1.000317904374364</v>
+        <v>0.0003179043743641863</v>
       </c>
       <c r="W23">
-        <v>0.9980988593155894</v>
+        <v>-0.001901140684410607</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2645,7 +2645,7 @@
         <v>1.544213283306605</v>
       </c>
       <c r="K24">
-        <v>60.69511913323781</v>
+        <v>0.1069511913323781</v>
       </c>
       <c r="L24">
         <v>0.02773786219491766</v>
@@ -2675,13 +2675,13 @@
         <v>0.5</v>
       </c>
       <c r="U24">
-        <v>1.000079271008705</v>
+        <v>7.927100870475101E-05</v>
       </c>
       <c r="V24">
-        <v>1.000190682005975</v>
+        <v>0.0001906820059747183</v>
       </c>
       <c r="W24">
-        <v>0.9990476190476191</v>
+        <v>-0.0009523809523809268</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2716,7 +2716,7 @@
         <v>1.544213283306605</v>
       </c>
       <c r="K25">
-        <v>60.69511913323781</v>
+        <v>0.1069511913323781</v>
       </c>
       <c r="L25">
         <v>0.02629910840085861</v>
@@ -2746,13 +2746,13 @@
         <v>0.40625</v>
       </c>
       <c r="U25">
-        <v>1.000072659331534</v>
+        <v>7.265933153410842E-05</v>
       </c>
       <c r="V25">
-        <v>1.000063548551093</v>
+        <v>6.354855109313995E-05</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2787,7 +2787,7 @@
         <v>1.685658537666824</v>
       </c>
       <c r="K26">
-        <v>62.76518455437176</v>
+        <v>0.1276518455437176</v>
       </c>
       <c r="L26">
         <v>0.024905474769305</v>
@@ -2817,13 +2817,13 @@
         <v>0.46875</v>
       </c>
       <c r="U26">
-        <v>1.000105037001671</v>
+        <v>0.0001050370016708602</v>
       </c>
       <c r="V26">
-        <v>1.000063544512931</v>
+        <v>6.354451293133501E-05</v>
       </c>
       <c r="W26">
-        <v>1.00095328884652</v>
+        <v>0.0009532888465204614</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2858,7 +2858,7 @@
         <v>1.685658537666824</v>
       </c>
       <c r="K27">
-        <v>62.76518455437176</v>
+        <v>0.1276518455437177</v>
       </c>
       <c r="L27">
         <v>0.02353600115923872</v>
@@ -2888,13 +2888,13 @@
         <v>0.4375</v>
       </c>
       <c r="U27">
-        <v>1.000096947049285</v>
+        <v>9.694704928464581E-05</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2929,7 +2929,7 @@
         <v>1.685658537666824</v>
       </c>
       <c r="K28">
-        <v>62.76518455437176</v>
+        <v>0.1276518455437176</v>
       </c>
       <c r="L28">
         <v>0.02218209681440708</v>
@@ -2959,13 +2959,13 @@
         <v>0.4375</v>
       </c>
       <c r="U28">
-        <v>1.00008975708469</v>
+        <v>8.975708468983434E-05</v>
       </c>
       <c r="V28">
-        <v>1.000190621425848</v>
+        <v>0.0001906214258482475</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3000,7 +3000,7 @@
         <v>1.85063332041675</v>
       </c>
       <c r="K29">
-        <v>64.92007608141603</v>
+        <v>0.1492007608141602</v>
       </c>
       <c r="L29">
         <v>0.02120039014644335</v>
@@ -3030,13 +3030,13 @@
         <v>0.3125</v>
       </c>
       <c r="U29">
-        <v>1.000117431359476</v>
+        <v>0.0001174313594760612</v>
       </c>
       <c r="V29">
-        <v>1.000254113461661</v>
+        <v>0.0002541134616607099</v>
       </c>
       <c r="W29">
-        <v>1.000952380952381</v>
+        <v>0.0009523809523810378</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3071,7 +3071,7 @@
         <v>1.57680844589131</v>
       </c>
       <c r="K30">
-        <v>61.19230354144143</v>
+        <v>0.1119230354144143</v>
       </c>
       <c r="L30">
         <v>0.02006912052003867</v>
@@ -3101,13 +3101,13 @@
         <v>0.09375</v>
       </c>
       <c r="U30">
-        <v>1.000076406317039</v>
+        <v>7.640631703931255E-05</v>
       </c>
       <c r="V30">
-        <v>1.00019053667831</v>
+        <v>0.0001905366783103712</v>
       </c>
       <c r="W30">
-        <v>0.9990485252140818</v>
+        <v>-0.0009514747859181716</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3142,7 +3142,7 @@
         <v>1.57680844589131</v>
       </c>
       <c r="K31">
-        <v>61.19230354144143</v>
+        <v>0.1119230354144143</v>
       </c>
       <c r="L31">
         <v>0.01884730306711573</v>
@@ -3172,13 +3172,13 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>1.000071307114256</v>
+        <v>7.130711425595848E-05</v>
       </c>
       <c r="V31">
-        <v>1.000063500127</v>
+        <v>6.350012700040431E-05</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3213,7 +3213,7 @@
         <v>1.57680844589131</v>
       </c>
       <c r="K32">
-        <v>61.19230354144143</v>
+        <v>0.1119230354144143</v>
       </c>
       <c r="L32">
         <v>0.01758057838056199</v>
@@ -3243,13 +3243,13 @@
         <v>0.03125</v>
       </c>
       <c r="U32">
-        <v>1.000381740098616</v>
+        <v>0.0003817400986163566</v>
       </c>
       <c r="V32">
-        <v>1.00006349609499</v>
+        <v>6.34960949901231E-05</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3284,7 +3284,7 @@
         <v>1.57680844589131</v>
       </c>
       <c r="K33">
-        <v>61.19230354144143</v>
+        <v>0.1119230354144143</v>
       </c>
       <c r="L33">
         <v>0.01630384162297301</v>
@@ -3314,13 +3314,13 @@
         <v>0.0625</v>
       </c>
       <c r="U33">
-        <v>1.000190797214361</v>
+        <v>0.0001907972143606607</v>
       </c>
       <c r="V33">
-        <v>1.000126984126984</v>
+        <v>0.0001269841269841976</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3355,7 +3355,7 @@
         <v>1.156595383049784</v>
       </c>
       <c r="K34">
-        <v>53.63061574462643</v>
+        <v>0.0363061574462642</v>
       </c>
       <c r="L34">
         <v>0.01434024553236383</v>
@@ -3385,13 +3385,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U34">
-        <v>1.000127173878485</v>
+        <v>0.0001271738784851539</v>
       </c>
       <c r="V34">
-        <v>0.9998730319959369</v>
+        <v>-0.0001269680040630883</v>
       </c>
       <c r="W34">
-        <v>0.9980952380952381</v>
+        <v>-0.001904761904761854</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3426,7 +3426,7 @@
         <v>1.014325103643059</v>
       </c>
       <c r="K35">
-        <v>50.3555807257019</v>
+        <v>0.003555807257018984</v>
       </c>
       <c r="L35">
         <v>0.0116867014870931</v>
@@ -3456,13 +3456,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U35">
-        <v>1.000127157707347</v>
+        <v>0.0001271577073467256</v>
       </c>
       <c r="V35">
-        <v>0.9998095238095238</v>
+        <v>-0.0001904761904761854</v>
       </c>
       <c r="W35">
-        <v>0.9990458015267175</v>
+        <v>-0.000954198473282486</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3497,7 +3497,7 @@
         <v>1.14380702190413</v>
       </c>
       <c r="K36">
-        <v>53.35401042245865</v>
+        <v>0.03354010422458653</v>
       </c>
       <c r="L36">
         <v>0.009096108897977417</v>
@@ -3527,13 +3527,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U36">
-        <v>1.00022249769556</v>
+        <v>0.0002224976955595981</v>
       </c>
       <c r="V36">
-        <v>0.9998094875214326</v>
+        <v>-0.000190512478567384</v>
       </c>
       <c r="W36">
-        <v>1.000955109837631</v>
+        <v>0.0009551098376312517</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3568,7 +3568,7 @@
         <v>1.416400534032701</v>
       </c>
       <c r="K37">
-        <v>58.61613230439441</v>
+        <v>0.08616132304394408</v>
       </c>
       <c r="L37">
         <v>0.007376216213666868</v>
@@ -3598,13 +3598,13 @@
         <v>-0.25</v>
       </c>
       <c r="U37">
-        <v>1.000063556628956</v>
+        <v>6.355662895640712E-05</v>
       </c>
       <c r="V37">
-        <v>0.9998729674796749</v>
+        <v>-0.0001270325203250877</v>
       </c>
       <c r="W37">
-        <v>1.001908396946565</v>
+        <v>0.001908396946564972</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3639,7 +3639,7 @@
         <v>0.8999412685510659</v>
       </c>
       <c r="K38">
-        <v>47.36679409239737</v>
+        <v>-0.02633205907602632</v>
       </c>
       <c r="L38">
         <v>0.004867512027167325</v>
@@ -3669,13 +3669,13 @@
         <v>-0.3125</v>
       </c>
       <c r="U38">
-        <v>1.000031776294884</v>
+        <v>3.177629488404499E-05</v>
       </c>
       <c r="V38">
-        <v>0.9997459026807267</v>
+        <v>-0.0002540973192732832</v>
       </c>
       <c r="W38">
-        <v>0.9961904761904762</v>
+        <v>-0.003809523809523818</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3710,7 +3710,7 @@
         <v>0.7550416339497837</v>
       </c>
       <c r="K39">
-        <v>43.0212947285208</v>
+        <v>-0.06978705271479202</v>
       </c>
       <c r="L39">
         <v>0.001327871829419267</v>
@@ -3740,13 +3740,13 @@
         <v>-0.5</v>
       </c>
       <c r="U39">
-        <v>0.9999364494296337</v>
+        <v>-6.355057036633305E-05</v>
       </c>
       <c r="V39">
-        <v>0.9996822976235861</v>
+        <v>-0.0003177023764139308</v>
       </c>
       <c r="W39">
-        <v>0.9980879541108987</v>
+        <v>-0.001912045889101321</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3781,7 +3781,7 @@
         <v>0.7550416339497837</v>
       </c>
       <c r="K40">
-        <v>43.0212947285208</v>
+        <v>-0.06978705271479202</v>
       </c>
       <c r="L40">
         <v>-0.002612519140920463</v>
@@ -3811,13 +3811,13 @@
         <v>-0.71875</v>
       </c>
       <c r="U40">
-        <v>0.9998728907814038</v>
+        <v>-0.0001271092185961553</v>
       </c>
       <c r="V40">
-        <v>0.9996821966567089</v>
+        <v>-0.0003178033432911231</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3852,7 +3852,7 @@
         <v>0.7550416339497837</v>
       </c>
       <c r="K41">
-        <v>43.0212947285208</v>
+        <v>-0.06978705271479202</v>
       </c>
       <c r="L41">
         <v>-0.006533541080800778</v>
@@ -3882,13 +3882,13 @@
         <v>-0.9375</v>
       </c>
       <c r="U41">
-        <v>0.9998410932782458</v>
+        <v>-0.0001589067217542262</v>
       </c>
       <c r="V41">
-        <v>0.9996185147507631</v>
+        <v>-0.0003814852492368681</v>
       </c>
       <c r="W41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3923,7 +3923,7 @@
         <v>0.7550416339497837</v>
       </c>
       <c r="K42">
-        <v>43.0212947285208</v>
+        <v>-0.06978705271479202</v>
       </c>
       <c r="L42">
         <v>-0.0101685915946681</v>
@@ -3953,13 +3953,13 @@
         <v>-1</v>
       </c>
       <c r="U42">
-        <v>0.9998092816274634</v>
+        <v>-0.0001907183725365913</v>
       </c>
       <c r="V42">
-        <v>0.9996183691642284</v>
+        <v>-0.0003816308357715847</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3994,7 +3994,7 @@
         <v>0.7550416339497837</v>
       </c>
       <c r="K43">
-        <v>43.0212947285208</v>
+        <v>-0.06978705271479202</v>
       </c>
       <c r="L43">
         <v>-0.0133616933250868</v>
@@ -4024,13 +4024,13 @@
         <v>-1</v>
       </c>
       <c r="U43">
-        <v>0.9999046226235135</v>
+        <v>-9.537737648646072E-05</v>
       </c>
       <c r="V43">
-        <v>0.9996182234665308</v>
+        <v>-0.0003817765334691581</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4065,7 +4065,7 @@
         <v>0.8590827735418497</v>
       </c>
       <c r="K44">
-        <v>46.21003355892324</v>
+        <v>-0.03789966441076764</v>
       </c>
       <c r="L44">
         <v>-0.01568711063549167</v>
@@ -4095,13 +4095,13 @@
         <v>-1.03125</v>
       </c>
       <c r="U44">
-        <v>0.9999364090172014</v>
+        <v>-6.359098279862252E-05</v>
       </c>
       <c r="V44">
-        <v>0.9996180776575431</v>
+        <v>-0.0003819223424569307</v>
       </c>
       <c r="W44">
-        <v>1.00095785440613</v>
+        <v>0.0009578544061301653</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4136,7 +4136,7 @@
         <v>0.8590827735418499</v>
       </c>
       <c r="K45">
-        <v>46.21003355892325</v>
+        <v>-0.03789966441076748</v>
       </c>
       <c r="L45">
         <v>-0.01728204145222191</v>
@@ -4166,13 +4166,13 @@
         <v>-1.15625</v>
       </c>
       <c r="U45">
-        <v>0.9999364049731312</v>
+        <v>-6.359502686881235E-05</v>
       </c>
       <c r="V45">
-        <v>0.9996816097809473</v>
+        <v>-0.0003183902190526666</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4207,7 +4207,7 @@
         <v>0.7702836701098422</v>
       </c>
       <c r="K46">
-        <v>43.51187796145958</v>
+        <v>-0.06488122038540417</v>
       </c>
       <c r="L46">
         <v>-0.01861815701539299</v>
@@ -4237,13 +4237,13 @@
         <v>-1.09375</v>
       </c>
       <c r="U46">
-        <v>0.9998410023213661</v>
+        <v>-0.0001589976786339209</v>
       </c>
       <c r="V46">
-        <v>0.9996178100515958</v>
+        <v>-0.0003821899484042213</v>
       </c>
       <c r="W46">
-        <v>0.999043062200957</v>
+        <v>-0.000956937799043045</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4278,7 +4278,7 @@
         <v>0.9878942271679776</v>
       </c>
       <c r="K47">
-        <v>49.69551265186607</v>
+        <v>-0.00304487348133925</v>
       </c>
       <c r="L47">
         <v>-0.01894893272727109</v>
@@ -4308,13 +4308,13 @@
         <v>-0.84375</v>
       </c>
       <c r="U47">
-        <v>0.9999045862222505</v>
+        <v>-9.541377774946458E-05</v>
       </c>
       <c r="V47">
-        <v>0.9997451092843943</v>
+        <v>-0.0002548907156056934</v>
       </c>
       <c r="W47">
-        <v>1.001915708812261</v>
+        <v>0.001915708812260553</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4349,7 +4349,7 @@
         <v>0.9878942271679776</v>
       </c>
       <c r="K48">
-        <v>49.69551265186607</v>
+        <v>-0.00304487348133925</v>
       </c>
       <c r="L48">
         <v>-0.01858073423697922</v>
@@ -4379,13 +4379,13 @@
         <v>-0.59375</v>
       </c>
       <c r="U48">
-        <v>0.999936384745062</v>
+        <v>-6.3615254938032E-05</v>
       </c>
       <c r="V48">
-        <v>0.9997450442985532</v>
+        <v>-0.0002549557014468462</v>
       </c>
       <c r="W48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4420,7 +4420,7 @@
         <v>1.229013957980316</v>
       </c>
       <c r="K49">
-        <v>55.13711359142458</v>
+        <v>0.0513711359142458</v>
       </c>
       <c r="L49">
         <v>-0.01704908528267362</v>
@@ -4450,13 +4450,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U49">
-        <v>0.9999363806979036</v>
+        <v>-6.36193020964182E-05</v>
       </c>
       <c r="V49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49">
-        <v>1.001912045889101</v>
+        <v>0.001912045889101321</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4491,7 +4491,7 @@
         <v>1.229013957980316</v>
       </c>
       <c r="K50">
-        <v>55.13711359142458</v>
+        <v>0.0513711359142458</v>
       </c>
       <c r="L50">
         <v>-0.01484795591278205</v>
@@ -4521,13 +4521,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U50">
-        <v>0.9999363766502307</v>
+        <v>-6.362334976928175E-05</v>
       </c>
       <c r="V50">
-        <v>1.000063755180108</v>
+        <v>6.375518010837133E-05</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4562,7 +4562,7 @@
         <v>0.9698897869568551</v>
       </c>
       <c r="K51">
-        <v>49.23573863770165</v>
+        <v>-0.007642613622983463</v>
       </c>
       <c r="L51">
         <v>-0.01302315771690108</v>
@@ -4592,13 +4592,13 @@
         <v>0.125</v>
       </c>
       <c r="U51">
-        <v>0.999840931505106</v>
+        <v>-0.0001590684948939991</v>
       </c>
       <c r="V51">
-        <v>0.9998724977687109</v>
+        <v>-0.0001275022312891005</v>
       </c>
       <c r="W51">
-        <v>0.9980916030534351</v>
+        <v>-0.001908396946564861</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4633,7 +4633,7 @@
         <v>1.080857723291807</v>
       </c>
       <c r="K52">
-        <v>51.94289408609576</v>
+        <v>0.01942894086095759</v>
       </c>
       <c r="L52">
         <v>-0.01114728720343731</v>
@@ -4663,13 +4663,13 @@
         <v>0.28125</v>
       </c>
       <c r="U52">
-        <v>0.9998409061982947</v>
+        <v>-0.0001590938017053123</v>
       </c>
       <c r="V52">
-        <v>0.9998087222647286</v>
+        <v>-0.000191277735271389</v>
       </c>
       <c r="W52">
-        <v>1.000956022944551</v>
+        <v>0.0009560229445506607</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4704,7 +4704,7 @@
         <v>1.080857723291807</v>
       </c>
       <c r="K53">
-        <v>51.94289408609576</v>
+        <v>0.01942894086095759</v>
       </c>
       <c r="L53">
         <v>-0.009319383051975392</v>
@@ -4734,13 +4734,13 @@
         <v>0.5</v>
       </c>
       <c r="U53">
-        <v>0.9999045285300575</v>
+        <v>-9.547146994248745E-05</v>
       </c>
       <c r="V53">
-        <v>1.000063771443148</v>
+        <v>6.377144314773098E-05</v>
       </c>
       <c r="W53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4775,7 +4775,7 @@
         <v>0.9625110576250744</v>
       </c>
       <c r="K54">
-        <v>49.04487309181604</v>
+        <v>-0.00955126908183962</v>
       </c>
       <c r="L54">
         <v>-0.007951014873890093</v>
@@ -4805,13 +4805,13 @@
         <v>0.625</v>
       </c>
       <c r="U54">
-        <v>0.9999045194143859</v>
+        <v>-9.54805856141494E-05</v>
       </c>
       <c r="V54">
-        <v>1.00012753475322</v>
+        <v>0.0001275347532201376</v>
       </c>
       <c r="W54">
-        <v>0.9990448901623686</v>
+        <v>-0.0009551098376313627</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4846,7 +4846,7 @@
         <v>1.19302324227141</v>
       </c>
       <c r="K55">
-        <v>54.40084807472188</v>
+        <v>0.04400848074721875</v>
       </c>
       <c r="L55">
         <v>-0.00622340527171482</v>
@@ -4876,13 +4876,13 @@
         <v>0.625</v>
       </c>
       <c r="U55">
-        <v>0.999968170098991</v>
+        <v>-3.182990100902838E-05</v>
       </c>
       <c r="V55">
-        <v>1.000255036980362</v>
+        <v>0.0002550369803622221</v>
       </c>
       <c r="W55">
-        <v>1.001912045889101</v>
+        <v>0.001912045889101321</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4917,7 +4917,7 @@
         <v>1.435667647162289</v>
       </c>
       <c r="K56">
-        <v>58.94349538349105</v>
+        <v>0.08943495383491051</v>
       </c>
       <c r="L56">
         <v>-0.003669637267971606</v>
@@ -4947,13 +4947,13 @@
         <v>0.6875</v>
       </c>
       <c r="U56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V56">
-        <v>1.000382457929628</v>
+        <v>0.0003824579296278774</v>
       </c>
       <c r="W56">
-        <v>1.001908396946565</v>
+        <v>0.001908396946564972</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4988,7 +4988,7 @@
         <v>1.435667647162289</v>
       </c>
       <c r="K57">
-        <v>58.94349538349105</v>
+        <v>0.08943495383491051</v>
       </c>
       <c r="L57">
         <v>-0.0007647472724663784</v>
@@ -5018,13 +5018,13 @@
         <v>0.625</v>
       </c>
       <c r="U57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57">
-        <v>1.000382311711482</v>
+        <v>0.000382311711482286</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5059,7 +5059,7 @@
         <v>1.435667647162289</v>
       </c>
       <c r="K58">
-        <v>58.94349538349105</v>
+        <v>0.08943495383491051</v>
       </c>
       <c r="L58">
         <v>0.002170388172130506</v>
@@ -5089,13 +5089,13 @@
         <v>0.5625</v>
       </c>
       <c r="U58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58">
-        <v>1.000382165605096</v>
+        <v>0.0003821656050955191</v>
       </c>
       <c r="W58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5130,7 +5130,7 @@
         <v>1.577171892615491</v>
       </c>
       <c r="K59">
-        <v>61.19777641276651</v>
+        <v>0.1119777641276651</v>
       </c>
       <c r="L59">
         <v>0.005276589221461881</v>
@@ -5160,13 +5160,13 @@
         <v>0.65625</v>
       </c>
       <c r="U59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V59">
-        <v>1.00038201961034</v>
+        <v>0.000382019610340123</v>
       </c>
       <c r="W59">
-        <v>1.000952380952381</v>
+        <v>0.0009523809523810378</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5201,7 +5201,7 @@
         <v>1.726123729934652</v>
       </c>
       <c r="K60">
-        <v>63.31787919163995</v>
+        <v>0.1331787919163996</v>
       </c>
       <c r="L60">
         <v>0.00861678675922216</v>
@@ -5231,13 +5231,13 @@
         <v>0.75</v>
       </c>
       <c r="U60">
-        <v>1.000063661828368</v>
+        <v>6.366182836758938E-05</v>
       </c>
       <c r="V60">
-        <v>1.000445519348269</v>
+        <v>0.0004455193482688635</v>
       </c>
       <c r="W60">
-        <v>1.000951474785918</v>
+        <v>0.0009514747859182826</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5272,7 +5272,7 @@
         <v>1.492165068342007</v>
       </c>
       <c r="K61">
-        <v>59.87424698696694</v>
+        <v>0.0987424698696695</v>
       </c>
       <c r="L61">
         <v>0.01150608854579114</v>
@@ -5302,13 +5302,13 @@
         <v>0.8125</v>
       </c>
       <c r="U61">
-        <v>1.000031828887899</v>
+        <v>3.182888789865501E-05</v>
       </c>
       <c r="V61">
-        <v>1.00044532094917</v>
+        <v>0.0004453209491697141</v>
       </c>
       <c r="W61">
-        <v>0.9990494296577946</v>
+        <v>-0.0009505703422053591</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5343,7 +5343,7 @@
         <v>1.634838661833479</v>
       </c>
       <c r="K62">
-        <v>62.04701204345696</v>
+        <v>0.1204701204345696</v>
       </c>
       <c r="L62">
         <v>0.01424356123810262</v>
@@ -5373,13 +5373,13 @@
         <v>0.9375</v>
       </c>
       <c r="U62">
-        <v>1.000063655749706</v>
+        <v>6.36557497055712E-05</v>
       </c>
       <c r="V62">
-        <v>1.000381533765738</v>
+        <v>0.00038153376573824</v>
       </c>
       <c r="W62">
-        <v>1.000951474785918</v>
+        <v>0.0009514747859182826</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5414,7 +5414,7 @@
         <v>1.421372986400377</v>
       </c>
       <c r="K63">
-        <v>58.70111686152888</v>
+        <v>0.08701116861528879</v>
       </c>
       <c r="L63">
         <v>0.01631438955799202</v>
@@ -5444,13 +5444,13 @@
         <v>0.96875</v>
       </c>
       <c r="U63">
-        <v>1.000031825848955</v>
+        <v>3.182584895466967E-05</v>
       </c>
       <c r="V63">
-        <v>1.000317823544368</v>
+        <v>0.0003178235443683786</v>
       </c>
       <c r="W63">
-        <v>0.9990494296577946</v>
+        <v>-0.0009505703422053591</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5485,7 +5485,7 @@
         <v>1.696263366996355</v>
       </c>
       <c r="K64">
-        <v>62.91163495968115</v>
+        <v>0.1291163495968115</v>
       </c>
       <c r="L64">
         <v>0.01848502670333769</v>
@@ -5515,13 +5515,13 @@
         <v>0.9375</v>
       </c>
       <c r="U64">
-        <v>1.00015912418051</v>
+        <v>0.0001591241805103394</v>
       </c>
       <c r="V64">
-        <v>1.000317722564656</v>
+        <v>0.000317722564656453</v>
       </c>
       <c r="W64">
-        <v>1.001902949571836</v>
+        <v>0.001902949571836343</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5556,7 +5556,7 @@
         <v>1.840942514678449</v>
       </c>
       <c r="K65">
-        <v>64.80041412899955</v>
+        <v>0.1480041412899955</v>
       </c>
       <c r="L65">
         <v>0.02085739108677562</v>
@@ -5586,13 +5586,13 @@
         <v>1</v>
       </c>
       <c r="U65">
-        <v>1.000222738409648</v>
+        <v>0.0002227384096478158</v>
       </c>
       <c r="V65">
-        <v>1.00038114597891</v>
+        <v>0.0003811459789098137</v>
       </c>
       <c r="W65">
-        <v>1.000949667616334</v>
+        <v>0.0009496676163343043</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5627,7 +5627,7 @@
         <v>1.840942514678448</v>
       </c>
       <c r="K66">
-        <v>64.80041412899955</v>
+        <v>0.1480041412899955</v>
       </c>
       <c r="L66">
         <v>0.02312389817910484</v>
@@ -5657,13 +5657,13 @@
         <v>1.0625</v>
       </c>
       <c r="U66">
-        <v>1.000190876121397</v>
+        <v>0.0001908761213973431</v>
       </c>
       <c r="V66">
-        <v>1.000508001016002</v>
+        <v>0.0005080010160021242</v>
       </c>
       <c r="W66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5698,7 +5698,7 @@
         <v>1.840942514678448</v>
       </c>
       <c r="K67">
-        <v>64.80041412899955</v>
+        <v>0.1480041412899955</v>
       </c>
       <c r="L67">
         <v>0.02509676487572233</v>
@@ -5728,13 +5728,13 @@
         <v>1</v>
       </c>
       <c r="U67">
-        <v>1.000127226463104</v>
+        <v>0.0001272264631044795</v>
       </c>
       <c r="V67">
-        <v>1.00044427519675</v>
+        <v>0.0004442751967501657</v>
       </c>
       <c r="W67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5769,7 +5769,7 @@
         <v>1.840942514678448</v>
       </c>
       <c r="K68">
-        <v>64.80041412899955</v>
+        <v>0.1480041412899955</v>
       </c>
       <c r="L68">
         <v>0.02667385920284315</v>
@@ -5799,13 +5799,13 @@
         <v>0.90625</v>
       </c>
       <c r="U68">
-        <v>1.000254420557181</v>
+        <v>0.0002544205571810565</v>
       </c>
       <c r="V68">
-        <v>1.000444077903952</v>
+        <v>0.0004440779039522891</v>
       </c>
       <c r="W68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5840,7 +5840,7 @@
         <v>1.840942514678449</v>
       </c>
       <c r="K69">
-        <v>64.80041412899955</v>
+        <v>0.1480041412899955</v>
       </c>
       <c r="L69">
         <v>0.02781290843669857</v>
@@ -5870,13 +5870,13 @@
         <v>0.875</v>
       </c>
       <c r="U69">
-        <v>1.000317944804782</v>
+        <v>0.0003179448047818667</v>
       </c>
       <c r="V69">
-        <v>1.000507292327204</v>
+        <v>0.0005072923272035901</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5911,7 +5911,7 @@
         <v>1.840942514678448</v>
       </c>
       <c r="K70">
-        <v>64.80041412899955</v>
+        <v>0.1480041412899955</v>
       </c>
       <c r="L70">
         <v>0.02851219688312565</v>
@@ -5941,13 +5941,13 @@
         <v>0.75</v>
       </c>
       <c r="U70">
-        <v>1.000317843748013</v>
+        <v>0.0003178437480133578</v>
       </c>
       <c r="V70">
-        <v>1.000380276334136</v>
+        <v>0.0003802763341362869</v>
       </c>
       <c r="W70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5982,7 +5982,7 @@
         <v>1.840942514678449</v>
       </c>
       <c r="K71">
-        <v>64.80041412899955</v>
+        <v>0.1480041412899955</v>
       </c>
       <c r="L71">
         <v>0.02879628199058471</v>
@@ -6012,13 +6012,13 @@
         <v>0.75</v>
       </c>
       <c r="U71">
-        <v>1.000317742755465</v>
+        <v>0.0003177427554652557</v>
       </c>
       <c r="V71">
-        <v>1.000253421186011</v>
+        <v>0.0002534211860112379</v>
       </c>
       <c r="W71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6053,7 +6053,7 @@
         <v>1.301614413472176</v>
       </c>
       <c r="K72">
-        <v>56.55223593723428</v>
+        <v>0.06552235937234274</v>
       </c>
       <c r="L72">
         <v>0.02801161244198709</v>
@@ -6083,13 +6083,13 @@
         <v>0.625</v>
       </c>
       <c r="U72">
-        <v>1.000254113461661</v>
+        <v>0.0002541134616607099</v>
       </c>
       <c r="V72">
-        <v>1.000126678489992</v>
+        <v>0.0001266784899924822</v>
       </c>
       <c r="W72">
-        <v>0.9981024667931688</v>
+        <v>-0.00189753320683117</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6124,7 +6124,7 @@
         <v>1.301614413472176</v>
       </c>
       <c r="K73">
-        <v>56.55223593723427</v>
+        <v>0.06552235937234274</v>
       </c>
       <c r="L73">
         <v>0.02652795216682406</v>
@@ -6154,13 +6154,13 @@
         <v>0.4375</v>
       </c>
       <c r="U73">
-        <v>1.000254048904414</v>
+        <v>0.0002540489044140504</v>
       </c>
       <c r="V73">
-        <v>1.000126662444585</v>
+        <v>0.0001266624445850351</v>
       </c>
       <c r="W73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6195,7 +6195,7 @@
         <v>1.119854821204112</v>
       </c>
       <c r="K74">
-        <v>52.82695824273551</v>
+        <v>0.02826958242735511</v>
       </c>
       <c r="L74">
         <v>0.02427239997464646</v>
@@ -6225,13 +6225,13 @@
         <v>0.21875</v>
       </c>
       <c r="U74">
-        <v>1.000190488284971</v>
+        <v>0.0001904882849705913</v>
       </c>
       <c r="V74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W74">
-        <v>0.9990494296577946</v>
+        <v>-0.0009505703422053591</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6266,7 +6266,7 @@
         <v>1.119854821204111</v>
       </c>
       <c r="K75">
-        <v>52.8269582427355</v>
+        <v>0.028269582427355</v>
       </c>
       <c r="L75">
         <v>0.02160518348494299</v>
@@ -6296,13 +6296,13 @@
         <v>0.03125</v>
       </c>
       <c r="U75">
-        <v>1.000190452006094</v>
+        <v>0.0001904520060942438</v>
       </c>
       <c r="V75">
-        <v>0.9999366767983789</v>
+        <v>-6.33232016210572E-05</v>
       </c>
       <c r="W75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6337,7 +6337,7 @@
         <v>0.9697999981532111</v>
       </c>
       <c r="K76">
-        <v>49.23342466557257</v>
+        <v>-0.007665753344274273</v>
       </c>
       <c r="L76">
         <v>0.0184336707781565</v>
@@ -6367,13 +6367,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U76">
-        <v>1.000190415741035</v>
+        <v>0.0001904157410346219</v>
       </c>
       <c r="V76">
-        <v>0.9999366727882972</v>
+        <v>-6.332721170276834E-05</v>
       </c>
       <c r="W76">
-        <v>0.9990485252140818</v>
+        <v>-0.0009514747859181716</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6408,7 +6408,7 @@
         <v>1.11084725028443</v>
       </c>
       <c r="K77">
-        <v>52.62565778432081</v>
+        <v>0.02625657784320812</v>
       </c>
       <c r="L77">
         <v>0.0154386823795138</v>
@@ -6438,13 +6438,13 @@
         <v>-0.34375</v>
       </c>
       <c r="U77">
-        <v>1.000158649574819</v>
+        <v>0.0001586495748191474</v>
       </c>
       <c r="V77">
-        <v>0.9999366687777073</v>
+        <v>-6.333122229273958E-05</v>
       </c>
       <c r="W77">
-        <v>1.000952380952381</v>
+        <v>0.0009523809523810378</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6479,7 +6479,7 @@
         <v>1.11084725028443</v>
       </c>
       <c r="K78">
-        <v>52.62565778432081</v>
+        <v>0.02625657784320812</v>
       </c>
       <c r="L78">
         <v>0.01268537060756656</v>
@@ -6509,13 +6509,13 @@
         <v>-0.5</v>
       </c>
       <c r="U78">
-        <v>1.000158624409124</v>
+        <v>0.000158624409123842</v>
       </c>
       <c r="V78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6550,7 +6550,7 @@
         <v>0.9607036397577858</v>
       </c>
       <c r="K79">
-        <v>48.99790158376336</v>
+        <v>-0.01002098416236641</v>
       </c>
       <c r="L79">
         <v>0.009861309582836883</v>
@@ -6580,13 +6580,13 @@
         <v>-0.71875</v>
       </c>
       <c r="U79">
-        <v>1.000063439700565</v>
+        <v>6.343970056477133E-05</v>
       </c>
       <c r="V79">
-        <v>0.9998099942998292</v>
+        <v>-0.0001900057001708033</v>
       </c>
       <c r="W79">
-        <v>0.9990485252140818</v>
+        <v>-0.0009514747859181716</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6621,7 +6621,7 @@
         <v>1.102978741736976</v>
       </c>
       <c r="K80">
-        <v>52.44840187143117</v>
+        <v>0.02448401871431172</v>
       </c>
       <c r="L80">
         <v>0.007484989908751049</v>
@@ -6651,13 +6651,13 @@
         <v>-0.71875</v>
       </c>
       <c r="U80">
-        <v>1.000095153514336</v>
+        <v>9.515351433631025E-05</v>
       </c>
       <c r="V80">
-        <v>0.999809958190802</v>
+        <v>-0.0001900418091980161</v>
       </c>
       <c r="W80">
-        <v>1.000952380952381</v>
+        <v>0.0009523809523810378</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6692,7 +6692,7 @@
         <v>0.9593094292376266</v>
       </c>
       <c r="K81">
-        <v>48.96160937738644</v>
+        <v>-0.01038390622613555</v>
       </c>
       <c r="L81">
         <v>0.005157635651163052</v>
@@ -6722,13 +6722,13 @@
         <v>-0.71875</v>
       </c>
       <c r="U81">
-        <v>1.000126859281342</v>
+        <v>0.000126859281342373</v>
       </c>
       <c r="V81">
-        <v>0.9997465627573973</v>
+        <v>-0.0002534372426027387</v>
       </c>
       <c r="W81">
-        <v>0.9990485252140818</v>
+        <v>-0.0009514747859181716</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6763,7 +6763,7 @@
         <v>0.9593094292376267</v>
       </c>
       <c r="K82">
-        <v>48.96160937738644</v>
+        <v>-0.01038390622613555</v>
       </c>
       <c r="L82">
         <v>0.002989485368272185</v>
@@ -6793,13 +6793,13 @@
         <v>-0.65625</v>
       </c>
       <c r="U82">
-        <v>1.00009513239258</v>
+        <v>9.513239257952222E-05</v>
       </c>
       <c r="V82">
-        <v>0.9997464985106788</v>
+        <v>-0.0002535014893212395</v>
       </c>
       <c r="W82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6834,7 +6834,7 @@
         <v>0.9593094292376267</v>
       </c>
       <c r="K83">
-        <v>48.96160937738644</v>
+        <v>-0.01038390622613555</v>
       </c>
       <c r="L83">
         <v>0.001045028105926287</v>
@@ -6864,13 +6864,13 @@
         <v>-0.59375</v>
       </c>
       <c r="U83">
-        <v>1.000095123343268</v>
+        <v>9.512334326844396E-05</v>
       </c>
       <c r="V83">
-        <v>0.9997464342313788</v>
+        <v>-0.0002535657686212334</v>
       </c>
       <c r="W83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6905,7 +6905,7 @@
         <v>0.8327889041541491</v>
       </c>
       <c r="K84">
-        <v>45.43834275003371</v>
+        <v>-0.04561657249966289</v>
       </c>
       <c r="L84">
         <v>-0.000990234950590925</v>
@@ -6935,13 +6935,13 @@
         <v>-0.5</v>
       </c>
       <c r="U84">
-        <v>1.000095114295679</v>
+        <v>9.511429567887753E-05</v>
       </c>
       <c r="V84">
-        <v>0.9996829623993404</v>
+        <v>-0.0003170376006595976</v>
       </c>
       <c r="W84">
-        <v>0.9990476190476191</v>
+        <v>-0.0009523809523809268</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6976,7 +6976,7 @@
         <v>0.7312680493822367</v>
       </c>
       <c r="K85">
-        <v>42.23886934453465</v>
+        <v>-0.07761130655465354</v>
       </c>
       <c r="L85">
         <v>-0.003293663779769248</v>
@@ -7006,13 +7006,13 @@
         <v>-0.5</v>
       </c>
       <c r="U85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V85">
-        <v>0.9996194342255488</v>
+        <v>-0.0003805657744512247</v>
       </c>
       <c r="W85">
-        <v>0.9990467111534795</v>
+        <v>-0.0009532888465204614</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7047,7 +7047,7 @@
         <v>0.9879094554374354</v>
       </c>
       <c r="K86">
-        <v>49.69589800658441</v>
+        <v>-0.003041019934155953</v>
       </c>
       <c r="L86">
         <v>-0.004908171060150322</v>
@@ -7077,13 +7077,13 @@
         <v>-0.4375</v>
       </c>
       <c r="U86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V86">
-        <v>0.9997461928934011</v>
+        <v>-0.0002538071065989467</v>
       </c>
       <c r="W86">
-        <v>1.001908396946565</v>
+        <v>0.001908396946564972</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7118,7 +7118,7 @@
         <v>0.9879094554374352</v>
       </c>
       <c r="K87">
-        <v>49.6958980065844</v>
+        <v>-0.003041019934156008</v>
       </c>
       <c r="L87">
         <v>-0.005984644364573089</v>
@@ -7148,13 +7148,13 @@
         <v>-0.3125</v>
       </c>
       <c r="U87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V87">
-        <v>0.9998730642294997</v>
+        <v>-0.0001269357705002694</v>
       </c>
       <c r="W87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7189,7 +7189,7 @@
         <v>0.9879094554374354</v>
       </c>
       <c r="K88">
-        <v>49.69589800658441</v>
+        <v>-0.003041019934155953</v>
       </c>
       <c r="L88">
         <v>-0.006644818201231604</v>
@@ -7219,13 +7219,13 @@
         <v>-0.3125</v>
       </c>
       <c r="U88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V88">
-        <v>0.9998730481147646</v>
+        <v>-0.0001269518852353713</v>
       </c>
       <c r="W88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7260,7 +7260,7 @@
         <v>1.13757640750345</v>
       </c>
       <c r="K89">
-        <v>53.21804654609119</v>
+        <v>0.03218046546091191</v>
       </c>
       <c r="L89">
         <v>-0.006640095389859426</v>
@@ -7290,13 +7290,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W89">
-        <v>1.000952380952381</v>
+        <v>0.0009523809523810378</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7331,7 +7331,7 @@
         <v>0.9827498999564385</v>
       </c>
       <c r="K90">
-        <v>49.56499556388981</v>
+        <v>-0.004350044361101923</v>
       </c>
       <c r="L90">
         <v>-0.006555074009937841</v>
@@ -7361,13 +7361,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U90">
-        <v>0.9999365965001269</v>
+        <v>-6.340349987310478E-05</v>
       </c>
       <c r="V90">
-        <v>0.9999365159979684</v>
+        <v>-6.348400203159965E-05</v>
       </c>
       <c r="W90">
-        <v>0.9990485252140818</v>
+        <v>-0.0009514747859181716</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7402,7 +7402,7 @@
         <v>0.9827498999564384</v>
       </c>
       <c r="K91">
-        <v>49.56499556388981</v>
+        <v>-0.004350044361101923</v>
       </c>
       <c r="L91">
         <v>-0.006402961789222865</v>
@@ -7432,13 +7432,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U91">
-        <v>0.9999682962399339</v>
+        <v>-3.170376006611519E-05</v>
       </c>
       <c r="V91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7473,7 +7473,7 @@
         <v>0.9827498999564385</v>
       </c>
       <c r="K92">
-        <v>49.56499556388981</v>
+        <v>-0.004350044361101923</v>
       </c>
       <c r="L92">
         <v>-0.006196586606347928</v>
@@ -7503,13 +7503,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U92">
-        <v>0.9999365904695476</v>
+        <v>-6.340953045236297E-05</v>
       </c>
       <c r="V92">
-        <v>0.9999365119674942</v>
+        <v>-6.348803250577628E-05</v>
       </c>
       <c r="W92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7544,7 +7544,7 @@
         <v>0.9827498999564385</v>
       </c>
       <c r="K93">
-        <v>49.56499556388981</v>
+        <v>-0.004350044361101923</v>
       </c>
       <c r="L93">
         <v>-0.00594792714596241</v>
@@ -7574,13 +7574,13 @@
         <v>0.0625</v>
       </c>
       <c r="U93">
-        <v>0.9999682932242621</v>
+        <v>-3.170677573793856E-05</v>
       </c>
       <c r="V93">
-        <v>0.999936507936508</v>
+        <v>-6.349206349198777E-05</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7615,7 +7615,7 @@
         <v>0.8420459995139421</v>
       </c>
       <c r="K94">
-        <v>45.71253919479381</v>
+        <v>-0.04287460805206195</v>
       </c>
       <c r="L94">
         <v>-0.006014394730927785</v>
@@ -7645,13 +7645,13 @@
         <v>0.0625</v>
       </c>
       <c r="U94">
-        <v>0.9998731688756421</v>
+        <v>-0.0001268311243578513</v>
       </c>
       <c r="V94">
-        <v>0.9999365039050097</v>
+        <v>-6.349609499034514E-05</v>
       </c>
       <c r="W94">
-        <v>0.9990476190476191</v>
+        <v>-0.0009523809523809268</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7686,7 +7686,7 @@
         <v>0.9927551157330365</v>
       </c>
       <c r="K95">
-        <v>49.81821940363459</v>
+        <v>-0.001817805963654051</v>
       </c>
       <c r="L95">
         <v>-0.005899133535609249</v>
@@ -7716,13 +7716,13 @@
         <v>0.0625</v>
       </c>
       <c r="U95">
-        <v>0.9998731527874674</v>
+        <v>-0.0001268472125326436</v>
       </c>
       <c r="V95">
-        <v>0.9999364998729998</v>
+        <v>-6.350012700018226E-05</v>
       </c>
       <c r="W95">
-        <v>1.00095328884652</v>
+        <v>0.0009532888465204614</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7757,7 +7757,7 @@
         <v>1.151396290700504</v>
       </c>
       <c r="K96">
-        <v>53.51855888556936</v>
+        <v>0.03518558885569356</v>
       </c>
       <c r="L96">
         <v>-0.005313031330560921</v>
@@ -7787,13 +7787,13 @@
         <v>0.125</v>
       </c>
       <c r="U96">
-        <v>0.9999048525214083</v>
+        <v>-9.514747859173944E-05</v>
       </c>
       <c r="V96">
-        <v>1.000063504159522</v>
+        <v>6.350415952249833E-05</v>
       </c>
       <c r="W96">
-        <v>1.000952380952381</v>
+        <v>0.0009523809523810378</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7828,7 +7828,7 @@
         <v>1.318387001192576</v>
       </c>
       <c r="K97">
-        <v>56.86656285229337</v>
+        <v>0.06866562852293367</v>
       </c>
       <c r="L97">
         <v>-0.004112991349089675</v>
@@ -7858,13 +7858,13 @@
         <v>0.125</v>
       </c>
       <c r="U97">
-        <v>0.9999365623116692</v>
+        <v>-6.343768833083629E-05</v>
       </c>
       <c r="V97">
-        <v>1.000127000254001</v>
+        <v>0.0001270002540005866</v>
       </c>
       <c r="W97">
-        <v>1.000951474785918</v>
+        <v>0.0009514747859182826</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7899,7 +7899,7 @@
         <v>1.318387001192576</v>
       </c>
       <c r="K98">
-        <v>56.86656285229337</v>
+        <v>0.06866562852293367</v>
       </c>
       <c r="L98">
         <v>-0.002602407035489545</v>
@@ -7929,13 +7929,13 @@
         <v>0.1875</v>
       </c>
       <c r="U98">
-        <v>0.9999365582870738</v>
+        <v>-6.344171292615997E-05</v>
       </c>
       <c r="V98">
-        <v>1.000126984126984</v>
+        <v>0.0001269841269841976</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7970,7 +7970,7 @@
         <v>1.112533523576706</v>
       </c>
       <c r="K99">
-        <v>52.66347308387744</v>
+        <v>0.02663473083877443</v>
       </c>
       <c r="L99">
         <v>-0.001337074570824978</v>
@@ -8000,13 +8000,13 @@
         <v>0.21875</v>
       </c>
       <c r="U99">
-        <v>0.9999048313929513</v>
+        <v>-9.516860704872343E-05</v>
       </c>
       <c r="V99">
-        <v>1.000126968004063</v>
+        <v>0.0001269680040627552</v>
       </c>
       <c r="W99">
-        <v>0.9990494296577946</v>
+        <v>-0.0009505703422053591</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8041,7 +8041,7 @@
         <v>1.112533523576706</v>
       </c>
       <c r="K100">
-        <v>52.66347308387744</v>
+        <v>0.02663473083877443</v>
       </c>
       <c r="L100">
         <v>-0.0002961102894332749</v>
@@ -8071,13 +8071,13 @@
         <v>0.21875</v>
       </c>
       <c r="U100">
-        <v>0.9999048223350252</v>
+        <v>-9.517766497479929E-05</v>
       </c>
       <c r="V100">
-        <v>1.000190427827853</v>
+        <v>0.0001904278278532789</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8112,7 +8112,7 @@
         <v>0.8265371827941005</v>
       </c>
       <c r="K101">
-        <v>45.25159359360675</v>
+        <v>-0.04748406406393252</v>
       </c>
       <c r="L101">
         <v>-0.0001496403016248625</v>
@@ -8142,13 +8142,13 @@
         <v>0.125</v>
       </c>
       <c r="U101">
-        <v>0.9998413554589588</v>
+        <v>-0.0001586445410411974</v>
       </c>
       <c r="V101">
-        <v>0.9999365361426668</v>
+        <v>-6.346385733324578E-05</v>
       </c>
       <c r="W101">
-        <v>0.9980970504281637</v>
+        <v>-0.001902949571836343</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8183,7 +8183,7 @@
         <v>0.7280349654121698</v>
       </c>
       <c r="K102">
-        <v>42.13080059051464</v>
+        <v>-0.07869199409485361</v>
       </c>
       <c r="L102">
         <v>-0.0009005239599464522</v>
@@ -8213,13 +8213,13 @@
         <v>0.125</v>
       </c>
       <c r="U102">
-        <v>0.9998730642294997</v>
+        <v>-0.0001269357705002694</v>
       </c>
       <c r="V102">
-        <v>0.9998730642294997</v>
+        <v>-0.0001269357705002694</v>
       </c>
       <c r="W102">
-        <v>0.9990467111534795</v>
+        <v>-0.0009532888465204614</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8254,7 +8254,7 @@
         <v>0.6468852078896862</v>
       </c>
       <c r="K103">
-        <v>39.27931374880723</v>
+        <v>-0.1072068625119277</v>
       </c>
       <c r="L103">
         <v>-0.002490587584342685</v>
@@ -8284,13 +8284,13 @@
         <v>0.03125</v>
       </c>
       <c r="U103">
-        <v>0.9998413101434556</v>
+        <v>-0.0001586898565444361</v>
       </c>
       <c r="V103">
-        <v>0.9998095721721467</v>
+        <v>-0.0001904278278532789</v>
       </c>
       <c r="W103">
-        <v>0.9990458015267175</v>
+        <v>-0.000954198473282486</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8325,7 +8325,7 @@
         <v>0.5789559451002845</v>
       </c>
       <c r="K104">
-        <v>36.66701068493163</v>
+        <v>-0.1333298931506837</v>
       </c>
       <c r="L104">
         <v>-0.004825406897537366</v>
@@ -8355,13 +8355,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U104">
-        <v>0.9998412849569883</v>
+        <v>-0.0001587150430116813</v>
       </c>
       <c r="V104">
-        <v>0.9996825598374707</v>
+        <v>-0.0003174401625293255</v>
       </c>
       <c r="W104">
-        <v>0.9990448901623686</v>
+        <v>-0.0009551098376313627</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8396,7 +8396,7 @@
         <v>0.5789559451002845</v>
       </c>
       <c r="K105">
-        <v>36.66701068493163</v>
+        <v>-0.1333298931506837</v>
       </c>
       <c r="L105">
         <v>-0.007445309958341364</v>
@@ -8426,13 +8426,13 @@
         <v>-0.375</v>
       </c>
       <c r="U105">
-        <v>0.9998412597625246</v>
+        <v>-0.0001587402374754188</v>
       </c>
       <c r="V105">
-        <v>0.9997459672297726</v>
+        <v>-0.000254032770227397</v>
       </c>
       <c r="W105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8467,7 +8467,7 @@
         <v>0.5789559451002845</v>
       </c>
       <c r="K106">
-        <v>36.66701068493163</v>
+        <v>-0.1333298931506837</v>
       </c>
       <c r="L106">
         <v>-0.01004422264868348</v>
@@ -8497,13 +8497,13 @@
         <v>-0.625</v>
       </c>
       <c r="U106">
-        <v>0.9998729876480489</v>
+        <v>-0.0001270123519511168</v>
       </c>
       <c r="V106">
-        <v>0.9997459026807267</v>
+        <v>-0.0002540973192732832</v>
       </c>
       <c r="W106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8538,7 +8538,7 @@
         <v>0.5789559451002846</v>
       </c>
       <c r="K107">
-        <v>36.66701068493163</v>
+        <v>-0.1333298931506837</v>
       </c>
       <c r="L107">
         <v>-0.01242864967149245</v>
@@ -8568,13 +8568,13 @@
         <v>-0.8125</v>
       </c>
       <c r="U107">
-        <v>0.9998412143923274</v>
+        <v>-0.0001587856076725735</v>
       </c>
       <c r="V107">
-        <v>0.999745838098869</v>
+        <v>-0.0002541619011310337</v>
       </c>
       <c r="W107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8609,7 +8609,7 @@
         <v>0.5789559451002847</v>
       </c>
       <c r="K108">
-        <v>36.66701068493164</v>
+        <v>-0.1333298931506836</v>
       </c>
       <c r="L108">
         <v>-0.01448635765334985</v>
@@ -8639,13 +8639,13 @@
         <v>-1</v>
       </c>
       <c r="U108">
-        <v>0.9998411891754542</v>
+        <v>-0.0001588108245458297</v>
       </c>
       <c r="V108">
-        <v>0.9997457734841744</v>
+        <v>-0.0002542265158256285</v>
       </c>
       <c r="W108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8680,7 +8680,7 @@
         <v>0.509774481437365</v>
       </c>
       <c r="K109">
-        <v>33.76494222846047</v>
+        <v>-0.1623505777153953</v>
       </c>
       <c r="L109">
         <v>-0.016509475278808</v>
@@ -8710,13 +8710,13 @@
         <v>-1.09375</v>
       </c>
       <c r="U109">
-        <v>0.9998411639505703</v>
+        <v>-0.0001588360494296781</v>
       </c>
       <c r="V109">
-        <v>0.999745708836618</v>
+        <v>-0.0002542911633820477</v>
       </c>
       <c r="W109">
-        <v>0.9990439770554493</v>
+        <v>-0.0009560229445506607</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8751,7 +8751,7 @@
         <v>0.6355570974475953</v>
       </c>
       <c r="K110">
-        <v>38.85875329203902</v>
+        <v>-0.1114124670796098</v>
       </c>
       <c r="L110">
         <v>-0.01797626040027985</v>
@@ -8781,13 +8781,13 @@
         <v>-1.125</v>
       </c>
       <c r="U110">
-        <v>0.9998411387176717</v>
+        <v>-0.0001588612823283375</v>
       </c>
       <c r="V110">
-        <v>0.9997456441561745</v>
+        <v>-0.0002543558438254934</v>
       </c>
       <c r="W110">
-        <v>1.000956937799043</v>
+        <v>0.000956937799043045</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8822,7 +8822,7 @@
         <v>0.7679598511425743</v>
       </c>
       <c r="K111">
-        <v>43.43762957322063</v>
+        <v>-0.06562370426779368</v>
       </c>
       <c r="L111">
         <v>-0.01860040352920615</v>
@@ -8852,13 +8852,13 @@
         <v>-1.03125</v>
       </c>
       <c r="U111">
-        <v>0.9999046680860528</v>
+        <v>-9.5331913947172E-05</v>
       </c>
       <c r="V111">
-        <v>0.9997455794428188</v>
+        <v>-0.0002544205571811675</v>
       </c>
       <c r="W111">
-        <v>1.000956022944551</v>
+        <v>0.0009560229445506607</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8893,7 +8893,7 @@
         <v>0.7679598511425744</v>
       </c>
       <c r="K112">
-        <v>43.43762957322064</v>
+        <v>-0.06562370426779363</v>
       </c>
       <c r="L112">
         <v>-0.01860651831033821</v>
@@ -8923,13 +8923,13 @@
         <v>-0.84375</v>
       </c>
       <c r="U112">
-        <v>0.9999046589970128</v>
+        <v>-9.534100298724812E-05</v>
       </c>
       <c r="V112">
-        <v>0.9996818933706579</v>
+        <v>-0.0003181066293420631</v>
       </c>
       <c r="W112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8964,7 +8964,7 @@
         <v>0.9146665034361799</v>
       </c>
       <c r="K113">
-        <v>47.77158329111949</v>
+        <v>-0.0222841670888051</v>
       </c>
       <c r="L113">
         <v>-0.01782292982286335</v>
@@ -8994,13 +8994,13 @@
         <v>-0.59375</v>
       </c>
       <c r="U113">
-        <v>0.9999364332708262</v>
+        <v>-6.356672917384731E-05</v>
       </c>
       <c r="V113">
-        <v>0.9997454337173042</v>
+        <v>-0.0002545662826958228</v>
       </c>
       <c r="W113">
-        <v>1.000955109837631</v>
+        <v>0.0009551098376312517</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9035,7 +9035,7 @@
         <v>1.069094558482081</v>
       </c>
       <c r="K114">
-        <v>51.66968102542326</v>
+        <v>0.01669681025423264</v>
       </c>
       <c r="L114">
         <v>-0.01619851944726768</v>
@@ -9065,13 +9065,13 @@
         <v>-0.3125</v>
       </c>
       <c r="U114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V114">
-        <v>0.9998726844484055</v>
+        <v>-0.000127315551594509</v>
       </c>
       <c r="W114">
-        <v>1.000954198473282</v>
+        <v>0.0009541984732823749</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9106,7 +9106,7 @@
         <v>0.9196070544547749</v>
       </c>
       <c r="K115">
-        <v>47.90600515457943</v>
+        <v>-0.02093994845420566</v>
       </c>
       <c r="L115">
         <v>-0.01445600866357803</v>
@@ -9136,13 +9136,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V115">
-        <v>0.9998090023556375</v>
+        <v>-0.0001909976443624783</v>
       </c>
       <c r="W115">
-        <v>0.9990467111534795</v>
+        <v>-0.0009532888465204614</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9177,7 +9177,7 @@
         <v>0.8016201536451064</v>
       </c>
       <c r="K116">
-        <v>44.49440421851621</v>
+        <v>-0.05505595781483791</v>
       </c>
       <c r="L116">
         <v>-0.01304746676740351</v>
@@ -9207,13 +9207,13 @@
         <v>0.09375</v>
       </c>
       <c r="U116">
-        <v>0.9999046438447601</v>
+        <v>-9.535615523992291E-05</v>
       </c>
       <c r="V116">
-        <v>0.999872643912379</v>
+        <v>-0.0001273560876210444</v>
       </c>
       <c r="W116">
-        <v>0.9990458015267175</v>
+        <v>-0.000954198473282486</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9248,7 +9248,7 @@
         <v>0.8016201536451064</v>
       </c>
       <c r="K117">
-        <v>44.49440421851621</v>
+        <v>-0.05505595781483791</v>
       </c>
       <c r="L117">
         <v>-0.0118835688736103</v>
@@ -9278,13 +9278,13 @@
         <v>0.28125</v>
       </c>
       <c r="U117">
-        <v>0.9999046347510968</v>
+        <v>-9.536524890318976E-05</v>
       </c>
       <c r="V117">
-        <v>0.9999363138453701</v>
+        <v>-6.368615462992722E-05</v>
       </c>
       <c r="W117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9319,7 +9319,7 @@
         <v>0.9437824037779807</v>
       </c>
       <c r="K118">
-        <v>48.55391230744878</v>
+        <v>-0.01446087692551218</v>
       </c>
       <c r="L118">
         <v>-0.01055149450006255</v>
@@ -9349,13 +9349,13 @@
         <v>0.40625</v>
       </c>
       <c r="U118">
-        <v>0.9999364171037991</v>
+        <v>-6.358289620089774E-05</v>
       </c>
       <c r="V118">
-        <v>1.000063690210815</v>
+        <v>6.369021081464865E-05</v>
       </c>
       <c r="W118">
-        <v>1.000955109837631</v>
+        <v>0.0009551098376312517</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9390,7 +9390,7 @@
         <v>0.9437824037779807</v>
       </c>
       <c r="K119">
-        <v>48.55391230744878</v>
+        <v>-0.01446087692551218</v>
       </c>
       <c r="L119">
         <v>-0.009163901400002521</v>
@@ -9420,13 +9420,13 @@
         <v>0.4375</v>
       </c>
       <c r="U119">
-        <v>0.9999046195911359</v>
+        <v>-9.538040886414301E-05</v>
       </c>
       <c r="V119">
-        <v>1.00012737230926</v>
+        <v>0.0001273723092600765</v>
       </c>
       <c r="W119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9461,7 +9461,7 @@
         <v>0.9437824037779807</v>
       </c>
       <c r="K120">
-        <v>48.55391230744878</v>
+        <v>-0.01446087692551218</v>
       </c>
       <c r="L120">
         <v>-0.007797665178099297</v>
@@ -9491,13 +9491,13 @@
         <v>0.4375</v>
       </c>
       <c r="U120">
-        <v>0.9999364069952306</v>
+        <v>-6.359300476943552E-05</v>
       </c>
       <c r="V120">
-        <v>1.000127356087621</v>
+        <v>0.0001273560876209334</v>
       </c>
       <c r="W120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9532,7 +9532,7 @@
         <v>0.8095500576207417</v>
       </c>
       <c r="K121">
-        <v>44.73764371487826</v>
+        <v>-0.05262356285121739</v>
       </c>
       <c r="L121">
         <v>-0.00685042479425501</v>
@@ -9562,13 +9562,13 @@
         <v>0.34375</v>
       </c>
       <c r="U121">
-        <v>0.9999046044263546</v>
+        <v>-9.539557364535156E-05</v>
       </c>
       <c r="V121">
-        <v>1.000063669935057</v>
+        <v>6.366993505690921E-05</v>
       </c>
       <c r="W121">
-        <v>0.9990458015267175</v>
+        <v>-0.000954198473282486</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9603,7 +9603,7 @@
         <v>0.9592638114645181</v>
       </c>
       <c r="K122">
-        <v>48.9604210444475</v>
+        <v>-0.010395789555525</v>
       </c>
       <c r="L122">
         <v>-0.005845049193712972</v>
@@ -9633,13 +9633,13 @@
         <v>0.21875</v>
       </c>
       <c r="U122">
-        <v>0.9999363968834472</v>
+        <v>-6.360311655284612E-05</v>
       </c>
       <c r="V122">
-        <v>1.000127331762908</v>
+        <v>0.0001273317629082449</v>
       </c>
       <c r="W122">
-        <v>1.000955109837631</v>
+        <v>0.0009551098376312517</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9674,7 +9674,7 @@
         <v>0.9592638114645179</v>
       </c>
       <c r="K123">
-        <v>48.96042104444749</v>
+        <v>-0.01039578955552506</v>
       </c>
       <c r="L123">
         <v>-0.004847203144064829</v>
@@ -9704,13 +9704,13 @@
         <v>0.15625</v>
       </c>
       <c r="U123">
-        <v>0.9999363928378336</v>
+        <v>-6.360716216635698E-05</v>
       </c>
       <c r="V123">
-        <v>1.000127315551595</v>
+        <v>0.00012731555159462</v>
       </c>
       <c r="W123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9745,7 +9745,7 @@
         <v>0.959263811464518</v>
       </c>
       <c r="K124">
-        <v>48.9604210444475</v>
+        <v>-0.010395789555525</v>
       </c>
       <c r="L124">
         <v>-0.003899836526005156</v>
@@ -9775,13 +9775,13 @@
         <v>0.15625</v>
       </c>
       <c r="U124">
-        <v>0.9999681943958526</v>
+        <v>-3.180560414739464E-05</v>
       </c>
       <c r="V124">
-        <v>1.000190949016612</v>
+        <v>0.0001909490166123184</v>
       </c>
       <c r="W124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9816,7 +9816,7 @@
         <v>1.133882565036498</v>
       </c>
       <c r="K125">
-        <v>53.1370649732594</v>
+        <v>0.03137064973259396</v>
       </c>
       <c r="L125">
         <v>-0.002681711451648019</v>
@@ -9846,13 +9846,13 @@
         <v>0.15625</v>
       </c>
       <c r="U125">
-        <v>0.9999681933842239</v>
+        <v>-3.180661577606436E-05</v>
       </c>
       <c r="V125">
-        <v>1.000190912562047</v>
+        <v>0.00019091256204673</v>
       </c>
       <c r="W125">
-        <v>1.000954198473282</v>
+        <v>0.0009541984732823749</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9887,7 +9887,7 @@
         <v>0.9578254260506861</v>
       </c>
       <c r="K126">
-        <v>48.92292301989386</v>
+        <v>-0.0107707698010614</v>
       </c>
       <c r="L126">
         <v>-0.001714888931698646</v>
@@ -9917,13 +9917,13 @@
         <v>0.09375</v>
       </c>
       <c r="U126">
-        <v>0.9999045771175926</v>
+        <v>-9.542288240738106E-05</v>
       </c>
       <c r="V126">
-        <v>1.000063625373799</v>
+        <v>6.362537379911437E-05</v>
       </c>
       <c r="W126">
-        <v>0.9990467111534795</v>
+        <v>-0.0009532888465204614</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9958,7 +9958,7 @@
         <v>1.121266782245828</v>
       </c>
       <c r="K127">
-        <v>52.85835763942527</v>
+        <v>0.02858357639425269</v>
       </c>
       <c r="L127">
         <v>-0.0006081778001958679</v>
@@ -9988,13 +9988,13 @@
         <v>0.09375</v>
       </c>
       <c r="U127">
-        <v>0.9999045680111974</v>
+        <v>-9.543198880257453E-05</v>
       </c>
       <c r="V127">
-        <v>1.000127242651737</v>
+        <v>0.0001272426517369141</v>
       </c>
       <c r="W127">
-        <v>1.000954198473282</v>
+        <v>0.0009541984732823749</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10029,7 +10029,7 @@
         <v>0.9566767366837854</v>
       </c>
       <c r="K128">
-        <v>48.89293764003042</v>
+        <v>-0.01107062359969579</v>
       </c>
       <c r="L128">
         <v>0.0001674493057949454</v>
@@ -10059,13 +10059,13 @@
         <v>0.0625</v>
       </c>
       <c r="U128">
-        <v>0.999872745204085</v>
+        <v>-0.0001272547959150216</v>
       </c>
       <c r="V128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W128">
-        <v>0.9990467111534795</v>
+        <v>-0.0009532888465204614</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10100,7 +10100,7 @@
         <v>1.111191863932965</v>
       </c>
       <c r="K129">
-        <v>52.63339078348437</v>
+        <v>0.02633390783484368</v>
       </c>
       <c r="L129">
         <v>0.001039962306925358</v>
@@ -10130,13 +10130,13 @@
         <v>0.15625</v>
       </c>
       <c r="U129">
-        <v>0.9999363645041203</v>
+        <v>-6.36354958797325E-05</v>
       </c>
       <c r="V129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W129">
-        <v>1.000954198473282</v>
+        <v>0.0009541984732823749</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10171,7 +10171,7 @@
         <v>0.9557427007499602</v>
       </c>
       <c r="K130">
-        <v>48.86852960685808</v>
+        <v>-0.0113147039314192</v>
       </c>
       <c r="L130">
         <v>0.001564249985649112</v>
@@ -10201,13 +10201,13 @@
         <v>0.1875</v>
       </c>
       <c r="U130">
-        <v>0.9999045406815796</v>
+        <v>-9.545931842036559E-05</v>
       </c>
       <c r="V130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W130">
-        <v>0.9990467111534795</v>
+        <v>-0.0009532888465204614</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10242,7 +10242,7 @@
         <v>1.25025655276507</v>
       </c>
       <c r="K131">
-        <v>55.56062268672343</v>
+        <v>0.05560622686723438</v>
       </c>
       <c r="L131">
         <v>0.002533479190228255</v>
@@ -10272,13 +10272,13 @@
         <v>0.25</v>
       </c>
       <c r="U131">
-        <v>1.000031822810591</v>
+        <v>3.182281059066483E-05</v>
       </c>
       <c r="V131">
-        <v>1.000190839694657</v>
+        <v>0.0001908396946566082</v>
       </c>
       <c r="W131">
-        <v>1.001908396946565</v>
+        <v>0.001908396946564972</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10313,7 +10313,7 @@
         <v>1.082466373166132</v>
       </c>
       <c r="K132">
-        <v>51.980016921972</v>
+        <v>0.01980016921972005</v>
       </c>
       <c r="L132">
         <v>0.003353720331392518</v>
@@ -10343,13 +10343,13 @@
         <v>0.25</v>
       </c>
       <c r="U132">
-        <v>1.000031821797932</v>
+        <v>3.182179793159712E-05</v>
       </c>
       <c r="V132">
-        <v>1.000127202187878</v>
+        <v>0.0001272021878775398</v>
       </c>
       <c r="W132">
-        <v>0.9990476190476191</v>
+        <v>-0.0009523809523809268</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10384,7 +10384,7 @@
         <v>1.365002371545788</v>
       </c>
       <c r="K133">
-        <v>57.71674430303465</v>
+        <v>0.07716744303034651</v>
       </c>
       <c r="L133">
         <v>0.00471416104113483</v>
@@ -10414,13 +10414,13 @@
         <v>0.25</v>
       </c>
       <c r="U133">
-        <v>1.000127283141348</v>
+        <v>0.0001272831413481335</v>
       </c>
       <c r="V133">
-        <v>1.000190779014309</v>
+        <v>0.0001907790143085286</v>
       </c>
       <c r="W133">
-        <v>1.001906577693041</v>
+        <v>0.001906577693040923</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10455,7 +10455,7 @@
         <v>1.513705528587712</v>
       </c>
       <c r="K134">
-        <v>60.2180928264165</v>
+        <v>0.102180928264165</v>
       </c>
       <c r="L134">
         <v>0.006645337501886472</v>
@@ -10485,13 +10485,13 @@
         <v>0.375</v>
       </c>
       <c r="U134">
-        <v>1.000190900413617</v>
+        <v>0.0001909004136173564</v>
       </c>
       <c r="V134">
-        <v>1.000254323499491</v>
+        <v>0.0002543234994913934</v>
       </c>
       <c r="W134">
-        <v>1.000951474785918</v>
+        <v>0.0009514747859182826</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10526,7 +10526,7 @@
         <v>1.308834185959707</v>
       </c>
       <c r="K135">
-        <v>56.68809799849993</v>
+        <v>0.06688097998499931</v>
       </c>
       <c r="L135">
         <v>0.008427303323506862</v>
@@ -10556,13 +10556,13 @@
         <v>0.40625</v>
       </c>
       <c r="U135">
-        <v>1.000159053314671</v>
+        <v>0.0001590533146711426</v>
       </c>
       <c r="V135">
-        <v>1.000190694126621</v>
+        <v>0.0001906941266209827</v>
       </c>
       <c r="W135">
-        <v>0.9990494296577946</v>
+        <v>-0.0009505703422053591</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10597,7 +10597,7 @@
         <v>1.145620363571217</v>
       </c>
       <c r="K136">
-        <v>53.3934326417569</v>
+        <v>0.03393432641756899</v>
       </c>
       <c r="L136">
         <v>0.009626998123951767</v>
@@ -10627,13 +10627,13 @@
         <v>0.46875</v>
       </c>
       <c r="U136">
-        <v>1.00012722241659</v>
+        <v>0.0001272224165898006</v>
       </c>
       <c r="V136">
-        <v>1.000190657769304</v>
+        <v>0.0001906577693040479</v>
       </c>
       <c r="W136">
-        <v>0.9990485252140818</v>
+        <v>-0.0009514747859181716</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10668,7 +10668,7 @@
         <v>1.145620363571218</v>
       </c>
       <c r="K137">
-        <v>53.3934326417569</v>
+        <v>0.03393432641756899</v>
       </c>
       <c r="L137">
         <v>0.01036235538771203</v>
@@ -10698,13 +10698,13 @@
         <v>0.4375</v>
       </c>
       <c r="U137">
-        <v>1.000127206233105</v>
+        <v>0.0001272062331052481</v>
       </c>
       <c r="V137">
-        <v>1.000127080950565</v>
+        <v>0.0001270809505653503</v>
       </c>
       <c r="W137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10739,7 +10739,7 @@
         <v>1.006542724593278</v>
       </c>
       <c r="K138">
-        <v>50.16303476903548</v>
+        <v>0.001630347690354861</v>
       </c>
       <c r="L138">
         <v>0.01038441939369919</v>
@@ -10769,13 +10769,13 @@
         <v>0.46875</v>
       </c>
       <c r="U138">
-        <v>1.000095392540304</v>
+        <v>9.53925403035516E-05</v>
       </c>
       <c r="V138">
-        <v>1.000063532401525</v>
+        <v>6.353240152501272E-05</v>
       </c>
       <c r="W138">
-        <v>0.9990476190476191</v>
+        <v>-0.0009523809523809268</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10810,7 +10810,7 @@
         <v>0.7276037672883506</v>
       </c>
       <c r="K139">
-        <v>42.11635683281697</v>
+        <v>-0.0788364316718303</v>
       </c>
       <c r="L139">
         <v>0.008893299231362272</v>
@@ -10840,13 +10840,13 @@
         <v>0.28125</v>
       </c>
       <c r="U139">
-        <v>1.000031794480478</v>
+        <v>3.179448047818667E-05</v>
       </c>
       <c r="V139">
-        <v>0.9998729432691695</v>
+        <v>-0.000127056730830466</v>
       </c>
       <c r="W139">
-        <v>0.9971401334604385</v>
+        <v>-0.002859866539561495</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10881,7 +10881,7 @@
         <v>0.8248408899272871</v>
       </c>
       <c r="K140">
-        <v>45.2007018518833</v>
+        <v>-0.04799298148116699</v>
       </c>
       <c r="L140">
         <v>0.006895802741041184</v>
@@ -10911,13 +10911,13 @@
         <v>0.1875</v>
       </c>
       <c r="U140">
-        <v>1.000031793469621</v>
+        <v>3.179346962123297E-05</v>
       </c>
       <c r="V140">
-        <v>0.9998729271237056</v>
+        <v>-0.0001270728762944318</v>
       </c>
       <c r="W140">
-        <v>1.000956022944551</v>
+        <v>0.0009560229445506607</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10952,7 +10952,7 @@
         <v>0.8248408899272873</v>
       </c>
       <c r="K141">
-        <v>45.20070185188332</v>
+        <v>-0.04799298148116682</v>
       </c>
       <c r="L141">
         <v>0.004693869708059625</v>
@@ -10982,13 +10982,13 @@
         <v>0</v>
       </c>
       <c r="U141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V141">
-        <v>0.9999364554870686</v>
+        <v>-6.354451293144603E-05</v>
       </c>
       <c r="W141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11023,7 +11023,7 @@
         <v>0.6786111035549508</v>
       </c>
       <c r="K142">
-        <v>40.42693999329524</v>
+        <v>-0.09573060006704764</v>
       </c>
       <c r="L142">
         <v>0.001796874024307698</v>
@@ -11053,13 +11053,13 @@
         <v>-0.34375</v>
       </c>
       <c r="U142">
-        <v>0.9999364150823425</v>
+        <v>-6.358491765745544E-05</v>
       </c>
       <c r="V142">
-        <v>0.9997458057956279</v>
+        <v>-0.0002541942043721157</v>
       </c>
       <c r="W142">
-        <v>0.9980897803247374</v>
+        <v>-0.001910219675262614</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11094,7 +11094,7 @@
         <v>0.6206961010110915</v>
       </c>
       <c r="K143">
-        <v>38.2981177423616</v>
+        <v>-0.117018822576384</v>
       </c>
       <c r="L143">
         <v>-0.001690369251958648</v>
@@ -11124,13 +11124,13 @@
         <v>-0.625</v>
       </c>
       <c r="U143">
-        <v>0.9998728220780871</v>
+        <v>-0.0001271779219128577</v>
       </c>
       <c r="V143">
-        <v>0.9997457411645054</v>
+        <v>-0.0002542588354945696</v>
       </c>
       <c r="W143">
-        <v>0.999043062200957</v>
+        <v>-0.000956937799043045</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11165,7 +11165,7 @@
         <v>0.6206961010110915</v>
       </c>
       <c r="K144">
-        <v>38.2981177423616</v>
+        <v>-0.117018822576384</v>
       </c>
       <c r="L144">
         <v>-0.005307031167587033</v>
@@ -11195,13 +11195,13 @@
         <v>-0.875</v>
       </c>
       <c r="U144">
-        <v>0.9998410073772577</v>
+        <v>-0.0001589926227423266</v>
       </c>
       <c r="V144">
-        <v>0.9996820956256359</v>
+        <v>-0.0003179043743640753</v>
       </c>
       <c r="W144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11236,7 +11236,7 @@
         <v>0.5219764114882486</v>
       </c>
       <c r="K145">
-        <v>34.29595935575897</v>
+        <v>-0.1570404064424104</v>
       </c>
       <c r="L145">
         <v>-0.009447234425142052</v>
@@ -11266,13 +11266,13 @@
         <v>-1.15625</v>
       </c>
       <c r="U145">
-        <v>0.9998091785135008</v>
+        <v>-0.000190821486499182</v>
       </c>
       <c r="V145">
-        <v>0.999618393436367</v>
+        <v>-0.0003816065636329524</v>
       </c>
       <c r="W145">
-        <v>0.9980842911877394</v>
+        <v>-0.001915708812260553</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11307,7 +11307,7 @@
         <v>0.6893940293633241</v>
       </c>
       <c r="K146">
-        <v>40.807178040231</v>
+        <v>-0.09192821959768999</v>
       </c>
       <c r="L146">
         <v>-0.01291254953943948</v>
@@ -11337,13 +11337,13 @@
         <v>-1.34375</v>
       </c>
       <c r="U146">
-        <v>0.9999045710468555</v>
+        <v>-9.542895314451627E-05</v>
       </c>
       <c r="V146">
-        <v>0.9996182477572058</v>
+        <v>-0.0003817522427942421</v>
       </c>
       <c r="W146">
-        <v>1.001919385796545</v>
+        <v>0.001919385796545159</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11378,7 +11378,7 @@
         <v>0.8656231008107719</v>
       </c>
       <c r="K147">
-        <v>46.39860540076852</v>
+        <v>-0.03601394599231483</v>
       </c>
       <c r="L147">
         <v>-0.01500706716960888</v>
@@ -11408,13 +11408,13 @@
         <v>-1.21875</v>
       </c>
       <c r="U147">
-        <v>0.9999681873131004</v>
+        <v>-3.181268689955719E-05</v>
       </c>
       <c r="V147">
-        <v>0.9998090509833873</v>
+        <v>-0.0001909490166126515</v>
       </c>
       <c r="W147">
-        <v>1.001915708812261</v>
+        <v>0.001915708812260553</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11449,7 +11449,7 @@
         <v>0.7921495340559274</v>
       </c>
       <c r="K148">
-        <v>44.2010847310918</v>
+        <v>-0.05798915268908206</v>
       </c>
       <c r="L148">
         <v>-0.01643050726361577</v>
@@ -11479,13 +11479,13 @@
         <v>-1.21875</v>
       </c>
       <c r="U148">
-        <v>0.9999045589030637</v>
+        <v>-9.544109693626623E-05</v>
       </c>
       <c r="V148">
-        <v>0.9996180290297937</v>
+        <v>-0.0003819709702063134</v>
       </c>
       <c r="W148">
-        <v>0.9990439770554493</v>
+        <v>-0.0009560229445506607</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11520,7 +11520,7 @@
         <v>0.6720572872444498</v>
       </c>
       <c r="K149">
-        <v>40.19343669450465</v>
+        <v>-0.09806563305495347</v>
       </c>
       <c r="L149">
         <v>-0.01799194008872251</v>
@@ -11550,13 +11550,13 @@
         <v>-1.21875</v>
       </c>
       <c r="U149">
-        <v>0.9998409163219852</v>
+        <v>-0.0001590836780147598</v>
       </c>
       <c r="V149">
-        <v>0.9994268246083302</v>
+        <v>-0.000573175391669789</v>
       </c>
       <c r="W149">
-        <v>0.9980861244019139</v>
+        <v>-0.00191387559808609</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11591,7 +11591,7 @@
         <v>0.6720572872444497</v>
       </c>
       <c r="K150">
-        <v>40.19343669450465</v>
+        <v>-0.09806563305495347</v>
       </c>
       <c r="L150">
         <v>-0.0194725211772539</v>
@@ -11621,13 +11621,13 @@
         <v>-1.0625</v>
       </c>
       <c r="U150">
-        <v>0.999840891010342</v>
+        <v>-0.0001591089896579856</v>
       </c>
       <c r="V150">
-        <v>0.9994902185687886</v>
+        <v>-0.0005097814312113869</v>
       </c>
       <c r="W150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11662,7 +11662,7 @@
         <v>0.5754007919641053</v>
       </c>
       <c r="K151">
-        <v>36.52408929201653</v>
+        <v>-0.1347591070798347</v>
       </c>
       <c r="L151">
         <v>-0.02143453449717062</v>
@@ -11692,13 +11692,13 @@
         <v>-0.9375</v>
       </c>
       <c r="U151">
-        <v>0.9998090388287717</v>
+        <v>-0.0001909611712282988</v>
       </c>
       <c r="V151">
-        <v>0.9994262033790244</v>
+        <v>-0.0005737966209755641</v>
       </c>
       <c r="W151">
-        <v>0.9980824544582934</v>
+        <v>-0.001917545541706644</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11733,7 +11733,7 @@
         <v>0.5754007919641053</v>
       </c>
       <c r="K152">
-        <v>36.52408929201653</v>
+        <v>-0.1347591070798347</v>
       </c>
       <c r="L152">
         <v>-0.02348610878845388</v>
@@ -11763,13 +11763,13 @@
         <v>-0.84375</v>
       </c>
       <c r="U152">
-        <v>0.9997771694149106</v>
+        <v>-0.0002228305850894285</v>
       </c>
       <c r="V152">
-        <v>0.9994258739474357</v>
+        <v>-0.0005741260525643499</v>
       </c>
       <c r="W152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11804,7 +11804,7 @@
         <v>0.6550804649336793</v>
       </c>
       <c r="K153">
-        <v>39.57997685387031</v>
+        <v>-0.1042002314612969</v>
       </c>
       <c r="L153">
         <v>-0.02502887024231985</v>
@@ -11834,13 +11834,13 @@
         <v>-0.59375</v>
       </c>
       <c r="U153">
-        <v>0.9998089597860349</v>
+        <v>-0.0001910402139650991</v>
       </c>
       <c r="V153">
-        <v>0.9995532009957234</v>
+        <v>-0.0004467990042765768</v>
       </c>
       <c r="W153">
-        <v>1.000960614793468</v>
+        <v>0.0009606147934677622</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11875,7 +11875,7 @@
         <v>0.6043883918696961</v>
       </c>
       <c r="K154">
-        <v>37.67095267782159</v>
+        <v>-0.1232904732217841</v>
       </c>
       <c r="L154">
         <v>-0.02642226338665041</v>
@@ -11905,13 +11905,13 @@
         <v>-0.53125</v>
       </c>
       <c r="U154">
-        <v>0.9997770771631477</v>
+        <v>-0.0002229228368523239</v>
       </c>
       <c r="V154">
-        <v>0.9996807151979566</v>
+        <v>-0.0003192848020433514</v>
       </c>
       <c r="W154">
-        <v>0.9990403071017274</v>
+        <v>-0.0009596928982725794</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11946,7 +11946,7 @@
         <v>0.6043883918696961</v>
       </c>
       <c r="K155">
-        <v>37.67095267782159</v>
+        <v>-0.1232904732217841</v>
       </c>
       <c r="L155">
         <v>-0.02754088504140418</v>
@@ -11976,13 +11976,13 @@
         <v>-0.6875</v>
       </c>
       <c r="U155">
-        <v>0.9997451742371154</v>
+        <v>-0.0002548257628846029</v>
       </c>
       <c r="V155">
-        <v>0.9996167358671351</v>
+        <v>-0.0003832641328649355</v>
       </c>
       <c r="W155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12017,7 +12017,7 @@
         <v>0.6043883918696962</v>
       </c>
       <c r="K156">
-        <v>37.6709526778216</v>
+        <v>-0.123290473221784</v>
       </c>
       <c r="L156">
         <v>-0.02832208065018652</v>
@@ -12047,13 +12047,13 @@
         <v>-0.75</v>
       </c>
       <c r="U156">
-        <v>0.999776970623845</v>
+        <v>-0.0002230293761550373</v>
       </c>
       <c r="V156">
-        <v>0.9996165889194197</v>
+        <v>-0.0003834110805802649</v>
       </c>
       <c r="W156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12088,7 +12088,7 @@
         <v>0.6946440812434158</v>
       </c>
       <c r="K157">
-        <v>40.99055895759142</v>
+        <v>-0.09009441042408584</v>
       </c>
       <c r="L157">
         <v>-0.02839832330289136</v>
@@ -12118,13 +12118,13 @@
         <v>-0.65625</v>
       </c>
       <c r="U157">
-        <v>0.999776920870646</v>
+        <v>-0.0002230791293540424</v>
       </c>
       <c r="V157">
-        <v>0.9998082209294894</v>
+        <v>-0.0001917790705106004</v>
       </c>
       <c r="W157">
-        <v>1.000960614793468</v>
+        <v>0.0009606147934677622</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12159,7 +12159,7 @@
         <v>0.6946440812434159</v>
       </c>
       <c r="K158">
-        <v>40.99055895759142</v>
+        <v>-0.09009441042408584</v>
       </c>
       <c r="L158">
         <v>-0.02793924559491294</v>
@@ -12189,13 +12189,13 @@
         <v>-0.625</v>
       </c>
       <c r="U158">
-        <v>0.9998087466530664</v>
+        <v>-0.0001912533469335953</v>
       </c>
       <c r="V158">
-        <v>0.9998721227621482</v>
+        <v>-0.0001278772378517923</v>
       </c>
       <c r="W158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12230,7 +12230,7 @@
         <v>0.5788639857572365</v>
       </c>
       <c r="K159">
-        <v>36.66332191874073</v>
+        <v>-0.1333667808125927</v>
       </c>
       <c r="L159">
         <v>-0.02777995858017307</v>
@@ -12260,13 +12260,13 @@
         <v>-0.5625</v>
       </c>
       <c r="U159">
-        <v>0.9997130651023401</v>
+        <v>-0.0002869348976598518</v>
       </c>
       <c r="V159">
-        <v>0.999744212814938</v>
+        <v>-0.0002557871850620286</v>
       </c>
       <c r="W159">
-        <v>0.9980806142034548</v>
+        <v>-0.001919385796545159</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12301,7 +12301,7 @@
         <v>0.5788639857572366</v>
       </c>
       <c r="K160">
-        <v>36.66332191874074</v>
+        <v>-0.1333667808125926</v>
       </c>
       <c r="L160">
         <v>-0.02771191048689856</v>
@@ -12331,13 +12331,13 @@
         <v>-0.5</v>
       </c>
       <c r="U160">
-        <v>0.9997448735529547</v>
+        <v>-0.0002551264470452841</v>
       </c>
       <c r="V160">
-        <v>0.9998720736855572</v>
+        <v>-0.0001279263144428056</v>
       </c>
       <c r="W160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12372,7 +12372,7 @@
         <v>0.4532917951946678</v>
       </c>
       <c r="K161">
-        <v>31.19069389185876</v>
+        <v>-0.1880930610814124</v>
       </c>
       <c r="L161">
         <v>-0.02864856086893059</v>
@@ -12402,13 +12402,13 @@
         <v>-0.65625</v>
       </c>
       <c r="U161">
-        <v>0.9995853137261156</v>
+        <v>-0.0004146862738844126</v>
       </c>
       <c r="V161">
-        <v>0.9995522006141249</v>
+        <v>-0.0004477993858751361</v>
       </c>
       <c r="W161">
-        <v>0.9971153846153846</v>
+        <v>-0.002884615384615374</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12443,7 +12443,7 @@
         <v>0.4212297572607058</v>
       </c>
       <c r="K162">
-        <v>29.63839978080594</v>
+        <v>-0.2036160021919406</v>
       </c>
       <c r="L162">
         <v>-0.0303799227186077</v>
@@ -12473,13 +12473,13 @@
         <v>-0.71875</v>
       </c>
       <c r="U162">
-        <v>0.9995851416900688</v>
+        <v>-0.0004148583099311542</v>
       </c>
       <c r="V162">
-        <v>0.9993599999999999</v>
+        <v>-0.0006400000000000849</v>
       </c>
       <c r="W162">
-        <v>0.9990356798457087</v>
+        <v>-0.0009643201542912649</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12514,7 +12514,7 @@
         <v>0.5701383144967926</v>
       </c>
       <c r="K163">
-        <v>36.31134335318185</v>
+        <v>-0.1368865664681815</v>
       </c>
       <c r="L163">
         <v>-0.03167605132801562</v>
@@ -12544,13 +12544,13 @@
         <v>-0.65625</v>
       </c>
       <c r="U163">
-        <v>0.999584969511222</v>
+        <v>-0.000415030488778001</v>
       </c>
       <c r="V163">
-        <v>0.9995517130963817</v>
+        <v>-0.0004482869036183112</v>
       </c>
       <c r="W163">
-        <v>1.001930501930502</v>
+        <v>0.001930501930502038</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12585,7 +12585,7 @@
         <v>0.5287023638600999</v>
       </c>
       <c r="K164">
-        <v>34.58504260601015</v>
+        <v>-0.1541495739398985</v>
       </c>
       <c r="L164">
         <v>-0.03286009906917176</v>
@@ -12615,13 +12615,13 @@
         <v>-0.65625</v>
       </c>
       <c r="U164">
-        <v>0.9995209198339189</v>
+        <v>-0.0004790801660811139</v>
       </c>
       <c r="V164">
-        <v>0.9996155817529473</v>
+        <v>-0.0003844182470527091</v>
       </c>
       <c r="W164">
-        <v>0.9990366088631984</v>
+        <v>-0.0009633911368015502</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12656,7 +12656,7 @@
         <v>0.491129886044924</v>
       </c>
       <c r="K165">
-        <v>32.93676095162964</v>
+        <v>-0.1706323904837037</v>
       </c>
       <c r="L165">
         <v>-0.03413103664599985</v>
@@ -12686,13 +12686,13 @@
         <v>-0.8125</v>
       </c>
       <c r="U165">
-        <v>0.9995206902061032</v>
+        <v>-0.000479309793896765</v>
       </c>
       <c r="V165">
-        <v>0.9995513395718497</v>
+        <v>-0.0004486604281502826</v>
       </c>
       <c r="W165">
-        <v>0.9990356798457087</v>
+        <v>-0.0009643201542912649</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12727,7 +12727,7 @@
         <v>0.4272137903811019</v>
       </c>
       <c r="K166">
-        <v>29.93341244741092</v>
+        <v>-0.2006658755258908</v>
       </c>
       <c r="L166">
         <v>-0.03594865971601341</v>
@@ -12757,13 +12757,13 @@
         <v>-1.03125</v>
       </c>
       <c r="U166">
-        <v>0.9994884910485934</v>
+        <v>-0.000511508951406614</v>
       </c>
       <c r="V166">
-        <v>0.9995511381853158</v>
+        <v>-0.0004488618146841761</v>
       </c>
       <c r="W166">
-        <v>0.9980694980694981</v>
+        <v>-0.001930501930501927</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12798,7 +12798,7 @@
         <v>0.4272137903811019</v>
       </c>
       <c r="K167">
-        <v>29.93341244741092</v>
+        <v>-0.2006658755258908</v>
       </c>
       <c r="L167">
         <v>-0.03785267351076547</v>
@@ -12828,13 +12828,13 @@
         <v>-1.1875</v>
       </c>
       <c r="U167">
-        <v>0.9994882292732854</v>
+        <v>-0.0005117707267145999</v>
       </c>
       <c r="V167">
-        <v>0.9995509366179112</v>
+        <v>-0.0004490633820888323</v>
       </c>
       <c r="W167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12869,7 +12869,7 @@
         <v>0.3733732006992941</v>
       </c>
       <c r="K168">
-        <v>27.18657976645969</v>
+        <v>-0.2281342023354032</v>
       </c>
       <c r="L168">
         <v>-0.04025017306310879</v>
@@ -12899,13 +12899,13 @@
         <v>-1.40625</v>
       </c>
       <c r="U168">
-        <v>0.9994559651817717</v>
+        <v>-0.0005440348182282895</v>
       </c>
       <c r="V168">
-        <v>0.9993581926705603</v>
+        <v>-0.0006418073294397475</v>
       </c>
       <c r="W168">
-        <v>0.9980657640232108</v>
+        <v>-0.001934235976789211</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12940,7 +12940,7 @@
         <v>0.5723636343098112</v>
       </c>
       <c r="K169">
-        <v>36.40148002793578</v>
+        <v>-0.1359851997206422</v>
       </c>
       <c r="L169">
         <v>-0.04160142210344539</v>
@@ -12970,13 +12970,13 @@
         <v>-1.3125</v>
       </c>
       <c r="U169">
-        <v>0.9996477858537992</v>
+        <v>-0.0003522141462007911</v>
       </c>
       <c r="V169">
-        <v>0.9996146682936229</v>
+        <v>-0.0003853317063771122</v>
       </c>
       <c r="W169">
-        <v>1.002906976744186</v>
+        <v>0.002906976744186052</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13011,7 +13011,7 @@
         <v>0.7120060438610512</v>
       </c>
       <c r="K170">
-        <v>41.588991254685</v>
+        <v>-0.08411008745315002</v>
       </c>
       <c r="L170">
         <v>-0.04138266816257472</v>
@@ -13041,13 +13041,13 @@
         <v>-1.125</v>
       </c>
       <c r="U170">
-        <v>0.9996796925048045</v>
+        <v>-0.0003203074951955154</v>
       </c>
       <c r="V170">
-        <v>0.999743013170575</v>
+        <v>-0.0002569868294249877</v>
       </c>
       <c r="W170">
-        <v>1.001932367149758</v>
+        <v>0.001932367149758418</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13082,7 +13082,7 @@
         <v>0.6632591463096913</v>
       </c>
       <c r="K171">
-        <v>39.87707795151938</v>
+        <v>-0.1012292204848063</v>
       </c>
       <c r="L171">
         <v>-0.04042511958976101</v>
@@ -13112,13 +13112,13 @@
         <v>-1.09375</v>
       </c>
       <c r="U171">
-        <v>0.9996475488625441</v>
+        <v>-0.0003524511374558559</v>
       </c>
       <c r="V171">
-        <v>0.9996786838892101</v>
+        <v>-0.0003213161107898932</v>
       </c>
       <c r="W171">
-        <v>0.9990356798457087</v>
+        <v>-0.0009643201542912649</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13153,7 +13153,7 @@
         <v>0.6632591463096912</v>
       </c>
       <c r="K172">
-        <v>39.87707795151937</v>
+        <v>-0.1012292204848063</v>
       </c>
       <c r="L172">
         <v>-0.03893367450291564</v>
@@ -13183,13 +13183,13 @@
         <v>-1</v>
       </c>
       <c r="U172">
-        <v>0.9997115292156801</v>
+        <v>-0.0002884707843199275</v>
       </c>
       <c r="V172">
-        <v>0.9996142967343792</v>
+        <v>-0.0003857032656208181</v>
       </c>
       <c r="W172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13224,7 +13224,7 @@
         <v>0.7391197142755074</v>
       </c>
       <c r="K173">
-        <v>42.49964555104903</v>
+        <v>-0.07500354448950963</v>
       </c>
       <c r="L173">
         <v>-0.03672187716029196</v>
@@ -13254,13 +13254,13 @@
         <v>-0.78125</v>
       </c>
       <c r="U173">
-        <v>0.9997755690926579</v>
+        <v>-0.0002244309073421435</v>
       </c>
       <c r="V173">
-        <v>0.9996784565916397</v>
+        <v>-0.0003215434083603252</v>
       </c>
       <c r="W173">
-        <v>1.000965250965251</v>
+        <v>0.0009652509652509078</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13295,7 +13295,7 @@
         <v>0.8189729437132086</v>
       </c>
       <c r="K174">
-        <v>45.02392113878156</v>
+        <v>-0.04976078861218441</v>
       </c>
       <c r="L174">
         <v>-0.03373014619586153</v>
@@ -13325,13 +13325,13 @@
         <v>-0.40625</v>
       </c>
       <c r="U174">
-        <v>0.9998075874675303</v>
+        <v>-0.0001924125324697101</v>
       </c>
       <c r="V174">
-        <v>0.9998713412672886</v>
+        <v>-0.0001286587327113953</v>
       </c>
       <c r="W174">
-        <v>1.000964320154291</v>
+        <v>0.0009643201542912649</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13366,7 +13366,7 @@
         <v>0.9870850056873165</v>
       </c>
       <c r="K175">
-        <v>49.67502662755446</v>
+        <v>-0.003249733724455417</v>
       </c>
       <c r="L175">
         <v>-0.02963232166648577</v>
@@ -13396,13 +13396,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U175">
-        <v>0.999935850145941</v>
+        <v>-6.414985405900353E-05</v>
       </c>
       <c r="V175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W175">
-        <v>1.001926782273603</v>
+        <v>0.0019267822736031</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13437,7 +13437,7 @@
         <v>0.9870850056873165</v>
       </c>
       <c r="K176">
-        <v>49.67502662755446</v>
+        <v>-0.003249733724455417</v>
       </c>
       <c r="L176">
         <v>-0.02501627143885593</v>
@@ -13467,13 +13467,13 @@
         <v>0.46875</v>
       </c>
       <c r="U176">
-        <v>0.9998716920609462</v>
+        <v>-0.0001283079390538289</v>
       </c>
       <c r="V176">
-        <v>1.000193012931867</v>
+        <v>0.0001930129318665763</v>
       </c>
       <c r="W176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13508,7 +13508,7 @@
         <v>1.080221882127266</v>
       </c>
       <c r="K177">
-        <v>51.92820493853352</v>
+        <v>0.01928204938533518</v>
       </c>
       <c r="L177">
         <v>-0.01993803546441301</v>
@@ -13538,13 +13538,13 @@
         <v>0.71875</v>
       </c>
       <c r="U177">
-        <v>0.999839594494883</v>
+        <v>-0.0001604055051169784</v>
       </c>
       <c r="V177">
-        <v>1.000321626141773</v>
+        <v>0.0003216261417726685</v>
       </c>
       <c r="W177">
-        <v>1.000961538461538</v>
+        <v>0.0009615384615384581</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13579,7 +13579,7 @@
         <v>0.8347176797947795</v>
       </c>
       <c r="K178">
-        <v>45.49570154510889</v>
+        <v>-0.04504298454891109</v>
       </c>
       <c r="L178">
         <v>-0.01588168719861296</v>
@@ -13609,13 +13609,13 @@
         <v>0.71875</v>
       </c>
       <c r="U178">
-        <v>0.999775396265161</v>
+        <v>-0.0002246037348390129</v>
       </c>
       <c r="V178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W178">
-        <v>0.9971181556195965</v>
+        <v>-0.002881844380403509</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13650,7 +13650,7 @@
         <v>1.153695944557133</v>
       </c>
       <c r="K179">
-        <v>53.5681904157724</v>
+        <v>0.03568190415772399</v>
       </c>
       <c r="L179">
         <v>-0.01124305235827559</v>
@@ -13680,13 +13680,13 @@
         <v>0.96875</v>
       </c>
       <c r="U179">
-        <v>0.9999679065438555</v>
+        <v>-3.209345614452186E-05</v>
       </c>
       <c r="V179">
-        <v>1.000321522731657</v>
+        <v>0.0003215227316570868</v>
       </c>
       <c r="W179">
-        <v>1.003853564547206</v>
+        <v>0.003853564547206201</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/Aker 14.12.2020.xlsx
+++ b/data_clean/Aker 14.12.2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -974,13 +977,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W179"/>
+  <dimension ref="A1:X179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,10 +1053,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>519</v>
@@ -1110,7 +1116,7 @@
         <v>519</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1121,10 +1127,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>522</v>
@@ -1181,7 +1190,7 @@
         <v>520.5</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>520.5</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1192,10 +1201,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>522</v>
@@ -1252,21 +1264,24 @@
         <v>521</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>521</v>
       </c>
       <c r="U4">
-        <v>0.0009606147934677622</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0.0009606147934677622</v>
       </c>
       <c r="W4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+        <v>0.0009606147934677622</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>521.5</v>
@@ -1323,21 +1338,24 @@
         <v>521.125</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>521.8333333333334</v>
       </c>
       <c r="U5">
-        <v>0.0002399232245682281</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0.0002399232245682281</v>
       </c>
       <c r="W5">
+        <v>0.0002399232245682281</v>
+      </c>
+      <c r="X5">
         <v>-0.0009578544061302763</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>520.5</v>
@@ -1394,21 +1412,24 @@
         <v>521</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>521.3333333333334</v>
       </c>
       <c r="U6">
-        <v>-0.0002398656752218287</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>-0.0002398656752218287</v>
       </c>
       <c r="W6">
+        <v>-0.0002398656752218287</v>
+      </c>
+      <c r="X6">
         <v>-0.001917545541706644</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>524</v>
@@ -1465,21 +1486,24 @@
         <v>521.5</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="U7">
-        <v>0.0009596928982724684</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0.0009596928982724684</v>
       </c>
       <c r="W7">
+        <v>0.0009596928982724684</v>
+      </c>
+      <c r="X7">
         <v>0.00672430355427478</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>522.5</v>
@@ -1536,21 +1560,24 @@
         <v>521.6428571428571</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>522.3333333333334</v>
       </c>
       <c r="U8">
-        <v>0.0002739350773866001</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0.0002739350773866001</v>
       </c>
       <c r="W8">
+        <v>0.0002739350773866001</v>
+      </c>
+      <c r="X8">
         <v>-0.002862595419847347</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>523</v>
@@ -1607,21 +1634,24 @@
         <v>521.8125</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>523.1666666666666</v>
       </c>
       <c r="U9">
-        <v>0.0003252088182938984</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0.0003252088182938984</v>
       </c>
       <c r="W9">
+        <v>0.0003252088182938984</v>
+      </c>
+      <c r="X9">
         <v>0.000956937799043045</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>524</v>
@@ -1678,21 +1708,24 @@
         <v>522.0555555555555</v>
       </c>
       <c r="T10">
+        <v>523.1666666666666</v>
+      </c>
+      <c r="U10">
         <v>0.3819444444444571</v>
-      </c>
-      <c r="U10">
-        <v>0.0004657909796248472</v>
       </c>
       <c r="V10">
         <v>0.0004657909796248472</v>
       </c>
       <c r="W10">
+        <v>0.0004657909796248472</v>
+      </c>
+      <c r="X10">
         <v>0.001912045889101321</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>524.5</v>
@@ -1749,21 +1782,24 @@
         <v>522.3</v>
       </c>
       <c r="T11">
+        <v>523.8333333333334</v>
+      </c>
+      <c r="U11">
         <v>0.4500000000000455</v>
-      </c>
-      <c r="U11">
-        <v>0.0004682345429392054</v>
       </c>
       <c r="V11">
         <v>0.0004682345429392054</v>
       </c>
       <c r="W11">
+        <v>0.0004682345429392054</v>
+      </c>
+      <c r="X11">
         <v>0.0009541984732823749</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>525</v>
@@ -1820,21 +1856,24 @@
         <v>522.5454545454545</v>
       </c>
       <c r="T12">
+        <v>524.5</v>
+      </c>
+      <c r="U12">
         <v>0.5795454545454959</v>
-      </c>
-      <c r="U12">
-        <v>0.0004699493499034091</v>
       </c>
       <c r="V12">
         <v>0.0004699493499034091</v>
       </c>
       <c r="W12">
+        <v>0.0004699493499034091</v>
+      </c>
+      <c r="X12">
         <v>0.0009532888465204614</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>523.5</v>
@@ -1891,21 +1930,24 @@
         <v>522.625</v>
       </c>
       <c r="T13">
+        <v>524.3333333333334</v>
+      </c>
+      <c r="U13">
         <v>0.75</v>
-      </c>
-      <c r="U13">
-        <v>0.0001522268615170574</v>
       </c>
       <c r="V13">
         <v>0.0001522268615170574</v>
       </c>
       <c r="W13">
+        <v>0.0001522268615170574</v>
+      </c>
+      <c r="X13">
         <v>-0.002857142857142891</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>523.5</v>
@@ -1962,21 +2004,24 @@
         <v>522.6923076923077</v>
       </c>
       <c r="T14">
+        <v>524</v>
+      </c>
+      <c r="U14">
         <v>1.057692307692264</v>
-      </c>
-      <c r="U14">
-        <v>0.0001287877394073877</v>
       </c>
       <c r="V14">
         <v>0.0001287877394073877</v>
       </c>
       <c r="W14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+        <v>0.0001287877394073877</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>523.5</v>
@@ -2033,21 +2078,24 @@
         <v>522.75</v>
       </c>
       <c r="T15">
+        <v>523.5</v>
+      </c>
+      <c r="U15">
         <v>0.9375</v>
-      </c>
-      <c r="U15">
-        <v>0.0001103752759381571</v>
       </c>
       <c r="V15">
         <v>0.0001103752759381571</v>
       </c>
       <c r="W15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+        <v>0.0001103752759381571</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>524.5</v>
@@ -2104,21 +2152,24 @@
         <v>522.8666666666667</v>
       </c>
       <c r="T16">
+        <v>523.8333333333334</v>
+      </c>
+      <c r="U16">
         <v>1.070833333333326</v>
-      </c>
-      <c r="U16">
-        <v>0.0002231787023752041</v>
       </c>
       <c r="V16">
         <v>0.0002231787023752041</v>
       </c>
       <c r="W16">
+        <v>0.0002231787023752041</v>
+      </c>
+      <c r="X16">
         <v>0.001910219675262725</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>524.5</v>
@@ -2175,21 +2226,24 @@
         <v>523.2333333333333</v>
       </c>
       <c r="T17">
+        <v>524.1666666666666</v>
+      </c>
+      <c r="U17">
         <v>1.15625</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.0001952377916614179</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.0007012622720898865</v>
       </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>524</v>
@@ -2246,21 +2300,24 @@
         <v>523.3666666666667</v>
       </c>
       <c r="T18">
+        <v>524.3333333333334</v>
+      </c>
+      <c r="U18">
         <v>0.84375</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.000115995008699521</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.0002548257628847139</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-0.0009532888465204614</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>525</v>
@@ -2317,21 +2374,24 @@
         <v>523.5666666666667</v>
       </c>
       <c r="T19">
+        <v>524.5</v>
+      </c>
+      <c r="U19">
         <v>0.71875</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.0002093135141552072</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.0003821412648876699</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.001908396946564972</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>525</v>
@@ -2388,21 +2448,24 @@
         <v>523.8</v>
       </c>
       <c r="T20">
+        <v>524.6666666666666</v>
+      </c>
+      <c r="U20">
         <v>0.53125</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.0001872413205263879</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.000445661170178635</v>
       </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>525.5</v>
@@ -2459,21 +2522,24 @@
         <v>524.1333333333333</v>
       </c>
       <c r="T21">
+        <v>525.1666666666666</v>
+      </c>
+      <c r="U21">
         <v>0.53125</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.000216265151134154</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.0006363752068219153</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.0009523809523810378</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>526</v>
@@ -2530,21 +2596,24 @@
         <v>524.2666666666667</v>
       </c>
       <c r="T22">
+        <v>525.5</v>
+      </c>
+      <c r="U22">
         <v>0.5</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.0002411206194525839</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.0002543881963876782</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.0009514747859182826</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>525</v>
@@ -2601,21 +2670,24 @@
         <v>524.4333333333333</v>
       </c>
       <c r="T23">
+        <v>525.5</v>
+      </c>
+      <c r="U23">
         <v>0.625</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.0001323156057986274</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.0003179043743641863</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-0.001901140684410607</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>524.5</v>
@@ -2672,21 +2744,24 @@
         <v>524.5333333333333</v>
       </c>
       <c r="T24">
+        <v>525.1666666666666</v>
+      </c>
+      <c r="U24">
         <v>0.5</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>7.927100870475101E-05</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.0001906820059747183</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>-0.0009523809523809268</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>524.5</v>
@@ -2743,21 +2818,24 @@
         <v>524.5666666666667</v>
       </c>
       <c r="T25">
+        <v>524.6666666666666</v>
+      </c>
+      <c r="U25">
         <v>0.40625</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>7.265933153410842E-05</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>6.354855109313995E-05</v>
       </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>525</v>
@@ -2814,21 +2892,24 @@
         <v>524.6</v>
       </c>
       <c r="T26">
+        <v>524.6666666666666</v>
+      </c>
+      <c r="U26">
         <v>0.46875</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.0001050370016708602</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>6.354451293133501E-05</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.0009532888465204614</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>525</v>
@@ -2885,21 +2966,24 @@
         <v>524.6</v>
       </c>
       <c r="T27">
+        <v>524.8333333333334</v>
+      </c>
+      <c r="U27">
         <v>0.4375</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>9.694704928464581E-05</v>
       </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
       <c r="W27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>525</v>
@@ -2956,21 +3040,24 @@
         <v>524.7</v>
       </c>
       <c r="T28">
+        <v>525</v>
+      </c>
+      <c r="U28">
         <v>0.4375</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>8.975708468983434E-05</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.0001906214258482475</v>
       </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>525.5</v>
@@ -3027,21 +3114,24 @@
         <v>524.8333333333334</v>
       </c>
       <c r="T29">
+        <v>525.1666666666666</v>
+      </c>
+      <c r="U29">
         <v>0.3125</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0.0001174313594760612</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.0002541134616607099</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.0009523809523810378</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>525</v>
@@ -3098,21 +3188,24 @@
         <v>524.9333333333333</v>
       </c>
       <c r="T30">
+        <v>525.1666666666666</v>
+      </c>
+      <c r="U30">
         <v>0.09375</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>7.640631703931255E-05</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.0001905366783103712</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-0.0009514747859181716</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>525</v>
@@ -3169,21 +3262,24 @@
         <v>524.9666666666667</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>525.1666666666666</v>
       </c>
       <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
         <v>7.130711425595848E-05</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>6.350012700040431E-05</v>
       </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>525</v>
@@ -3240,21 +3336,24 @@
         <v>525</v>
       </c>
       <c r="T32">
+        <v>525</v>
+      </c>
+      <c r="U32">
         <v>0.03125</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.0003817400986163566</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>6.34960949901231E-05</v>
       </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>525</v>
@@ -3311,21 +3410,24 @@
         <v>525.0666666666667</v>
       </c>
       <c r="T33">
+        <v>525</v>
+      </c>
+      <c r="U33">
         <v>0.0625</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.0001907972143606607</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.0001269841269841976</v>
       </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>524</v>
@@ -3382,21 +3484,24 @@
         <v>525</v>
       </c>
       <c r="T34">
+        <v>524.6666666666666</v>
+      </c>
+      <c r="U34">
         <v>-0.0625</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.0001271738784851539</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-0.0001269680040630883</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-0.001904761904761854</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>523.5</v>
@@ -3453,21 +3558,24 @@
         <v>524.9</v>
       </c>
       <c r="T35">
+        <v>524.1666666666666</v>
+      </c>
+      <c r="U35">
         <v>-0.15625</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>0.0001271577073467256</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>-0.0001904761904761854</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>-0.000954198473282486</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>524</v>
@@ -3524,21 +3632,24 @@
         <v>524.8</v>
       </c>
       <c r="T36">
+        <v>523.8333333333334</v>
+      </c>
+      <c r="U36">
         <v>-0.21875</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>0.0002224976955595981</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>-0.000190512478567384</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>0.0009551098376312517</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>525</v>
@@ -3595,21 +3706,24 @@
         <v>524.7333333333333</v>
       </c>
       <c r="T37">
+        <v>524.1666666666666</v>
+      </c>
+      <c r="U37">
         <v>-0.25</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>6.355662895640712E-05</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>-0.0001270325203250877</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.001908396946564972</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>523</v>
@@ -3666,21 +3780,24 @@
         <v>524.6</v>
       </c>
       <c r="T38">
+        <v>524</v>
+      </c>
+      <c r="U38">
         <v>-0.3125</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>3.177629488404499E-05</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>-0.0002540973192732832</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>-0.003809523809523818</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>522</v>
@@ -3737,21 +3854,24 @@
         <v>524.4333333333333</v>
       </c>
       <c r="T39">
+        <v>523.3333333333334</v>
+      </c>
+      <c r="U39">
         <v>-0.5</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>-6.355057036633305E-05</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>-0.0003177023764139308</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>-0.001912045889101321</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>522</v>
@@ -3808,21 +3928,24 @@
         <v>524.2666666666667</v>
       </c>
       <c r="T40">
+        <v>522.3333333333334</v>
+      </c>
+      <c r="U40">
         <v>-0.71875</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>-0.0001271092185961553</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>-0.0003178033432911231</v>
       </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>522</v>
@@ -3879,21 +4002,24 @@
         <v>524.0666666666667</v>
       </c>
       <c r="T41">
+        <v>522</v>
+      </c>
+      <c r="U41">
         <v>-0.9375</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>-0.0001589067217542262</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>-0.0003814852492368681</v>
       </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>522</v>
@@ -3950,21 +4076,24 @@
         <v>523.8666666666667</v>
       </c>
       <c r="T42">
+        <v>522</v>
+      </c>
+      <c r="U42">
         <v>-1</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>-0.0001907183725365913</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>-0.0003816308357715847</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>522</v>
@@ -4021,21 +4150,24 @@
         <v>523.6666666666666</v>
       </c>
       <c r="T43">
+        <v>522</v>
+      </c>
+      <c r="U43">
         <v>-1</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>-9.537737648646072E-05</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>-0.0003817765334691581</v>
       </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>522.5</v>
@@ -4092,21 +4224,24 @@
         <v>523.4666666666667</v>
       </c>
       <c r="T44">
+        <v>522.1666666666666</v>
+      </c>
+      <c r="U44">
         <v>-1.03125</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>-6.359098279862252E-05</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>-0.0003819223424569307</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>0.0009578544061301653</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>522.5</v>
@@ -4163,21 +4298,24 @@
         <v>523.3</v>
       </c>
       <c r="T45">
+        <v>522.3333333333334</v>
+      </c>
+      <c r="U45">
         <v>-1.15625</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>-6.359502686881235E-05</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>-0.0003183902190526666</v>
       </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>522</v>
@@ -4234,21 +4372,24 @@
         <v>523.1</v>
       </c>
       <c r="T46">
+        <v>522.3333333333334</v>
+      </c>
+      <c r="U46">
         <v>-1.09375</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>-0.0001589976786339209</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>-0.0003821899484042213</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>-0.000956937799043045</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>523</v>
@@ -4305,21 +4446,24 @@
         <v>522.9666666666667</v>
       </c>
       <c r="T47">
+        <v>522.5</v>
+      </c>
+      <c r="U47">
         <v>-0.84375</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>-9.541377774946458E-05</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>-0.0002548907156056934</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>0.001915708812260553</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>523</v>
@@ -4376,21 +4520,24 @@
         <v>522.8333333333334</v>
       </c>
       <c r="T48">
+        <v>522.6666666666666</v>
+      </c>
+      <c r="U48">
         <v>-0.59375</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>-6.3615254938032E-05</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>-0.0002549557014468462</v>
       </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="X48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>524</v>
@@ -4447,21 +4594,24 @@
         <v>522.8333333333334</v>
       </c>
       <c r="T49">
+        <v>523.3333333333334</v>
+      </c>
+      <c r="U49">
         <v>-0.28125</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>-6.36193020964182E-05</v>
       </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
       <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
         <v>0.001912045889101321</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>524</v>
@@ -4518,21 +4668,24 @@
         <v>522.8666666666667</v>
       </c>
       <c r="T50">
+        <v>523.6666666666666</v>
+      </c>
+      <c r="U50">
         <v>-0.03125</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>-6.362334976928175E-05</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>6.375518010837133E-05</v>
       </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="X50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>523</v>
@@ -4589,21 +4742,24 @@
         <v>522.8</v>
       </c>
       <c r="T51">
+        <v>523.6666666666666</v>
+      </c>
+      <c r="U51">
         <v>0.125</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>-0.0001590684948939991</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>-0.0001275022312891005</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>-0.001908396946564861</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>523.5</v>
@@ -4660,21 +4816,24 @@
         <v>522.7</v>
       </c>
       <c r="T52">
+        <v>523.5</v>
+      </c>
+      <c r="U52">
         <v>0.28125</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>-0.0001590938017053123</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>-0.000191277735271389</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>0.0009560229445506607</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>523.5</v>
@@ -4731,21 +4890,24 @@
         <v>522.7333333333333</v>
       </c>
       <c r="T53">
+        <v>523.3333333333334</v>
+      </c>
+      <c r="U53">
         <v>0.5</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>-9.547146994248745E-05</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>6.377144314773098E-05</v>
       </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="X53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>523</v>
@@ -4802,21 +4964,24 @@
         <v>522.8</v>
       </c>
       <c r="T54">
+        <v>523.3333333333334</v>
+      </c>
+      <c r="U54">
         <v>0.625</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>-9.54805856141494E-05</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>0.0001275347532201376</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>-0.0009551098376313627</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>524</v>
@@ -4873,21 +5038,24 @@
         <v>522.9333333333333</v>
       </c>
       <c r="T55">
+        <v>523.5</v>
+      </c>
+      <c r="U55">
         <v>0.625</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>-3.182990100902838E-05</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>0.0002550369803622221</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>0.001912045889101321</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>525</v>
@@ -4944,21 +5112,24 @@
         <v>523.1333333333333</v>
       </c>
       <c r="T56">
+        <v>524</v>
+      </c>
+      <c r="U56">
         <v>0.6875</v>
       </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
       <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
         <v>0.0003824579296278774</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>0.001908396946564972</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>525</v>
@@ -5015,21 +5186,24 @@
         <v>523.3333333333334</v>
       </c>
       <c r="T57">
+        <v>524.6666666666666</v>
+      </c>
+      <c r="U57">
         <v>0.625</v>
       </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
       <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
         <v>0.000382311711482286</v>
       </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="X57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>525</v>
@@ -5086,21 +5260,24 @@
         <v>523.5333333333333</v>
       </c>
       <c r="T58">
+        <v>525</v>
+      </c>
+      <c r="U58">
         <v>0.5625</v>
       </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
       <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
         <v>0.0003821656050955191</v>
       </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="X58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>525.5</v>
@@ -5157,21 +5334,24 @@
         <v>523.7333333333333</v>
       </c>
       <c r="T59">
+        <v>525.1666666666666</v>
+      </c>
+      <c r="U59">
         <v>0.65625</v>
       </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
       <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
         <v>0.000382019610340123</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>0.0009523809523810378</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>526</v>
@@ -5228,21 +5408,24 @@
         <v>523.9666666666667</v>
       </c>
       <c r="T60">
+        <v>525.5</v>
+      </c>
+      <c r="U60">
         <v>0.75</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>6.366182836758938E-05</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>0.0004455193482688635</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>0.0009514747859182826</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>525.5</v>
@@ -5299,21 +5482,24 @@
         <v>524.2</v>
       </c>
       <c r="T61">
+        <v>525.6666666666666</v>
+      </c>
+      <c r="U61">
         <v>0.8125</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>3.182888789865501E-05</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>0.0004453209491697141</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>-0.0009505703422053591</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>526</v>
@@ -5370,21 +5556,24 @@
         <v>524.4</v>
       </c>
       <c r="T62">
+        <v>525.8333333333334</v>
+      </c>
+      <c r="U62">
         <v>0.9375</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>6.36557497055712E-05</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>0.00038153376573824</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>0.0009514747859182826</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>525.5</v>
@@ -5441,21 +5630,24 @@
         <v>524.5666666666667</v>
       </c>
       <c r="T63">
+        <v>525.6666666666666</v>
+      </c>
+      <c r="U63">
         <v>0.96875</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>3.182584895466967E-05</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>0.0003178235443683786</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>-0.0009505703422053591</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>526.5</v>
@@ -5512,21 +5704,24 @@
         <v>524.7333333333333</v>
       </c>
       <c r="T64">
+        <v>526</v>
+      </c>
+      <c r="U64">
         <v>0.9375</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>0.0001591241805103394</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>0.000317722564656453</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>0.001902949571836343</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>527</v>
@@ -5583,21 +5778,24 @@
         <v>524.9333333333333</v>
       </c>
       <c r="T65">
+        <v>526.3333333333334</v>
+      </c>
+      <c r="U65">
         <v>1</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>0.0002227384096478158</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>0.0003811459789098137</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>0.0009496676163343043</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>527</v>
@@ -5654,21 +5852,24 @@
         <v>525.2</v>
       </c>
       <c r="T66">
+        <v>526.8333333333334</v>
+      </c>
+      <c r="U66">
         <v>1.0625</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>0.0001908761213973431</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>0.0005080010160021242</v>
       </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="X66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>527</v>
@@ -5725,21 +5926,24 @@
         <v>525.4333333333333</v>
       </c>
       <c r="T67">
+        <v>527</v>
+      </c>
+      <c r="U67">
         <v>1</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>0.0001272264631044795</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>0.0004442751967501657</v>
       </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="X67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>527</v>
@@ -5796,21 +6000,24 @@
         <v>525.6666666666666</v>
       </c>
       <c r="T68">
+        <v>527</v>
+      </c>
+      <c r="U68">
         <v>0.90625</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>0.0002544205571810565</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>0.0004440779039522891</v>
       </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23">
+      <c r="X68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>527</v>
@@ -5867,21 +6074,24 @@
         <v>525.9333333333333</v>
       </c>
       <c r="T69">
+        <v>527</v>
+      </c>
+      <c r="U69">
         <v>0.875</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>0.0003179448047818667</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>0.0005072923272035901</v>
       </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="X69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>527</v>
@@ -5938,21 +6148,24 @@
         <v>526.1333333333333</v>
       </c>
       <c r="T70">
+        <v>527</v>
+      </c>
+      <c r="U70">
         <v>0.75</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>0.0003178437480133578</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>0.0003802763341362869</v>
       </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23">
+      <c r="X70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>527</v>
@@ -6009,21 +6222,24 @@
         <v>526.2666666666667</v>
       </c>
       <c r="T71">
+        <v>527</v>
+      </c>
+      <c r="U71">
         <v>0.75</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>0.0003177427554652557</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>0.0002534211860112379</v>
       </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="X71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>526</v>
@@ -6080,21 +6296,24 @@
         <v>526.3333333333334</v>
       </c>
       <c r="T72">
+        <v>526.6666666666666</v>
+      </c>
+      <c r="U72">
         <v>0.625</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>0.0002541134616607099</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>0.0001266784899924822</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>-0.00189753320683117</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>526</v>
@@ -6151,21 +6370,24 @@
         <v>526.4</v>
       </c>
       <c r="T73">
+        <v>526.3333333333334</v>
+      </c>
+      <c r="U73">
         <v>0.4375</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>0.0002540489044140504</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>0.0001266624445850351</v>
       </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="X73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>525.5</v>
@@ -6222,21 +6444,24 @@
         <v>526.4</v>
       </c>
       <c r="T74">
+        <v>525.8333333333334</v>
+      </c>
+      <c r="U74">
         <v>0.21875</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>0.0001904882849705913</v>
       </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
       <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
         <v>-0.0009505703422053591</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>525.5</v>
@@ -6293,21 +6518,24 @@
         <v>526.3666666666667</v>
       </c>
       <c r="T75">
+        <v>525.6666666666666</v>
+      </c>
+      <c r="U75">
         <v>0.03125</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>0.0001904520060942438</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>-6.33232016210572E-05</v>
       </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="X75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>525</v>
@@ -6364,21 +6592,24 @@
         <v>526.3333333333334</v>
       </c>
       <c r="T76">
+        <v>525.3333333333334</v>
+      </c>
+      <c r="U76">
         <v>-0.15625</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>0.0001904157410346219</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>-6.332721170276834E-05</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>-0.0009514747859181716</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>525.5</v>
@@ -6435,21 +6666,24 @@
         <v>526.3</v>
       </c>
       <c r="T77">
+        <v>525.3333333333334</v>
+      </c>
+      <c r="U77">
         <v>-0.34375</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>0.0001586495748191474</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>-6.333122229273958E-05</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>0.0009523809523810378</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>525.5</v>
@@ -6506,21 +6740,24 @@
         <v>526.3</v>
       </c>
       <c r="T78">
+        <v>525.3333333333334</v>
+      </c>
+      <c r="U78">
         <v>-0.5</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>0.000158624409123842</v>
       </c>
-      <c r="V78">
-        <v>0</v>
-      </c>
       <c r="W78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:23">
+      <c r="X78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>525</v>
@@ -6577,21 +6814,24 @@
         <v>526.2</v>
       </c>
       <c r="T79">
+        <v>525.3333333333334</v>
+      </c>
+      <c r="U79">
         <v>-0.71875</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>6.343970056477133E-05</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>-0.0001900057001708033</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>-0.0009514747859181716</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>525.5</v>
@@ -6648,21 +6888,24 @@
         <v>526.1</v>
       </c>
       <c r="T80">
+        <v>525.3333333333334</v>
+      </c>
+      <c r="U80">
         <v>-0.71875</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>9.515351433631025E-05</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>-0.0001900418091980161</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>0.0009523809523810378</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>525</v>
@@ -6719,21 +6962,24 @@
         <v>525.9666666666667</v>
       </c>
       <c r="T81">
+        <v>525.1666666666666</v>
+      </c>
+      <c r="U81">
         <v>-0.71875</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>0.000126859281342373</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>-0.0002534372426027387</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>-0.0009514747859181716</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>525</v>
@@ -6790,21 +7036,24 @@
         <v>525.8333333333334</v>
       </c>
       <c r="T82">
+        <v>525.1666666666666</v>
+      </c>
+      <c r="U82">
         <v>-0.65625</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>9.513239257952222E-05</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>-0.0002535014893212395</v>
       </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23">
+      <c r="X82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>525</v>
@@ -6861,21 +7110,24 @@
         <v>525.7</v>
       </c>
       <c r="T83">
+        <v>525</v>
+      </c>
+      <c r="U83">
         <v>-0.59375</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>9.512334326844396E-05</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>-0.0002535657686212334</v>
       </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23">
+      <c r="X83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>524.5</v>
@@ -6932,21 +7184,24 @@
         <v>525.5333333333333</v>
       </c>
       <c r="T84">
+        <v>524.8333333333334</v>
+      </c>
+      <c r="U84">
         <v>-0.5</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>9.511429567887753E-05</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>-0.0003170376006595976</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>-0.0009523809523809268</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>524</v>
@@ -7003,21 +7258,24 @@
         <v>525.3333333333334</v>
       </c>
       <c r="T85">
+        <v>524.5</v>
+      </c>
+      <c r="U85">
         <v>-0.5</v>
       </c>
-      <c r="U85">
-        <v>0</v>
-      </c>
       <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
         <v>-0.0003805657744512247</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>-0.0009532888465204614</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>525</v>
@@ -7074,21 +7332,24 @@
         <v>525.2</v>
       </c>
       <c r="T86">
+        <v>524.5</v>
+      </c>
+      <c r="U86">
         <v>-0.4375</v>
       </c>
-      <c r="U86">
-        <v>0</v>
-      </c>
       <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
         <v>-0.0002538071065989467</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>0.001908396946564972</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>525</v>
@@ -7145,21 +7406,24 @@
         <v>525.1333333333333</v>
       </c>
       <c r="T87">
+        <v>524.6666666666666</v>
+      </c>
+      <c r="U87">
         <v>-0.3125</v>
       </c>
-      <c r="U87">
-        <v>0</v>
-      </c>
       <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
         <v>-0.0001269357705002694</v>
       </c>
-      <c r="W87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23">
+      <c r="X87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>525</v>
@@ -7216,21 +7480,24 @@
         <v>525.0666666666667</v>
       </c>
       <c r="T88">
+        <v>525</v>
+      </c>
+      <c r="U88">
         <v>-0.3125</v>
       </c>
-      <c r="U88">
-        <v>0</v>
-      </c>
       <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
         <v>-0.0001269518852353713</v>
       </c>
-      <c r="W88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23">
+      <c r="X88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>525.5</v>
@@ -7287,21 +7554,24 @@
         <v>525.0666666666667</v>
       </c>
       <c r="T89">
+        <v>525.1666666666666</v>
+      </c>
+      <c r="U89">
         <v>-0.21875</v>
       </c>
-      <c r="U89">
-        <v>0</v>
-      </c>
       <c r="V89">
         <v>0</v>
       </c>
       <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
         <v>0.0009523809523810378</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>525</v>
@@ -7358,21 +7628,24 @@
         <v>525.0333333333333</v>
       </c>
       <c r="T90">
+        <v>525.1666666666666</v>
+      </c>
+      <c r="U90">
         <v>-0.1875</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>-6.340349987310478E-05</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>-6.348400203159965E-05</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>-0.0009514747859181716</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>525</v>
@@ -7429,21 +7702,24 @@
         <v>525.0333333333333</v>
       </c>
       <c r="T91">
+        <v>525.1666666666666</v>
+      </c>
+      <c r="U91">
         <v>-0.15625</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>-3.170376006611519E-05</v>
       </c>
-      <c r="V91">
-        <v>0</v>
-      </c>
       <c r="W91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:23">
+      <c r="X91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>525</v>
@@ -7500,21 +7776,24 @@
         <v>525</v>
       </c>
       <c r="T92">
+        <v>525</v>
+      </c>
+      <c r="U92">
         <v>-0.09375</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>-6.340953045236297E-05</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>-6.348803250577628E-05</v>
       </c>
-      <c r="W92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23">
+      <c r="X92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>525</v>
@@ -7571,21 +7850,24 @@
         <v>524.9666666666667</v>
       </c>
       <c r="T93">
+        <v>525</v>
+      </c>
+      <c r="U93">
         <v>0.0625</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>-3.170677573793856E-05</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>-6.349206349198777E-05</v>
       </c>
-      <c r="W93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23">
+      <c r="X93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>524.5</v>
@@ -7642,21 +7924,24 @@
         <v>524.9333333333333</v>
       </c>
       <c r="T94">
+        <v>524.8333333333334</v>
+      </c>
+      <c r="U94">
         <v>0.0625</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>-0.0001268311243578513</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>-6.349609499034514E-05</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>-0.0009523809523809268</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>525</v>
@@ -7713,21 +7998,24 @@
         <v>524.9</v>
       </c>
       <c r="T95">
+        <v>524.8333333333334</v>
+      </c>
+      <c r="U95">
         <v>0.0625</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>-0.0001268472125326436</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>-6.350012700018226E-05</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>0.0009532888465204614</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>525.5</v>
@@ -7784,21 +8072,24 @@
         <v>524.9333333333333</v>
       </c>
       <c r="T96">
+        <v>525</v>
+      </c>
+      <c r="U96">
         <v>0.125</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>-9.514747859173944E-05</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>6.350415952249833E-05</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>0.0009523809523810378</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>526</v>
@@ -7855,21 +8146,24 @@
         <v>525</v>
       </c>
       <c r="T97">
+        <v>525.5</v>
+      </c>
+      <c r="U97">
         <v>0.125</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>-6.343768833083629E-05</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>0.0001270002540005866</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>0.0009514747859182826</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>526</v>
@@ -7926,21 +8220,24 @@
         <v>525.0666666666667</v>
       </c>
       <c r="T98">
+        <v>525.8333333333334</v>
+      </c>
+      <c r="U98">
         <v>0.1875</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>-6.344171292615997E-05</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>0.0001269841269841976</v>
       </c>
-      <c r="W98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23">
+      <c r="X98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>525.5</v>
@@ -7997,21 +8294,24 @@
         <v>525.1333333333333</v>
       </c>
       <c r="T99">
+        <v>525.8333333333334</v>
+      </c>
+      <c r="U99">
         <v>0.21875</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>-9.516860704872343E-05</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>0.0001269680040627552</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>-0.0009505703422053591</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>525.5</v>
@@ -8068,21 +8368,24 @@
         <v>525.2333333333333</v>
       </c>
       <c r="T100">
+        <v>525.6666666666666</v>
+      </c>
+      <c r="U100">
         <v>0.21875</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>-9.517766497479929E-05</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>0.0001904278278532789</v>
       </c>
-      <c r="W100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23">
+      <c r="X100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>524.5</v>
@@ -8139,21 +8442,24 @@
         <v>525.2</v>
       </c>
       <c r="T101">
+        <v>525.1666666666666</v>
+      </c>
+      <c r="U101">
         <v>0.125</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>-0.0001586445410411974</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>-6.346385733324578E-05</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>-0.001902949571836343</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>524</v>
@@ -8210,21 +8516,24 @@
         <v>525.1333333333333</v>
       </c>
       <c r="T102">
+        <v>524.6666666666666</v>
+      </c>
+      <c r="U102">
         <v>0.125</v>
-      </c>
-      <c r="U102">
-        <v>-0.0001269357705002694</v>
       </c>
       <c r="V102">
         <v>-0.0001269357705002694</v>
       </c>
       <c r="W102">
+        <v>-0.0001269357705002694</v>
+      </c>
+      <c r="X102">
         <v>-0.0009532888465204614</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>523.5</v>
@@ -8281,21 +8590,24 @@
         <v>525.0333333333333</v>
       </c>
       <c r="T103">
+        <v>524</v>
+      </c>
+      <c r="U103">
         <v>0.03125</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>-0.0001586898565444361</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>-0.0001904278278532789</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>-0.000954198473282486</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>523</v>
@@ -8352,21 +8664,24 @@
         <v>524.8666666666667</v>
       </c>
       <c r="T104">
+        <v>523.5</v>
+      </c>
+      <c r="U104">
         <v>-0.15625</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>-0.0001587150430116813</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>-0.0003174401625293255</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>-0.0009551098376313627</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>523</v>
@@ -8423,21 +8738,24 @@
         <v>524.7333333333333</v>
       </c>
       <c r="T105">
+        <v>523.1666666666666</v>
+      </c>
+      <c r="U105">
         <v>-0.375</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>-0.0001587402374754188</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>-0.000254032770227397</v>
       </c>
-      <c r="W105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23">
+      <c r="X105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>523</v>
@@ -8494,21 +8812,24 @@
         <v>524.6</v>
       </c>
       <c r="T106">
+        <v>523</v>
+      </c>
+      <c r="U106">
         <v>-0.625</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>-0.0001270123519511168</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>-0.0002540973192732832</v>
       </c>
-      <c r="W106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23">
+      <c r="X106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>523</v>
@@ -8565,21 +8886,24 @@
         <v>524.4666666666667</v>
       </c>
       <c r="T107">
+        <v>523</v>
+      </c>
+      <c r="U107">
         <v>-0.8125</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>-0.0001587856076725735</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>-0.0002541619011310337</v>
       </c>
-      <c r="W107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23">
+      <c r="X107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>523</v>
@@ -8636,21 +8960,24 @@
         <v>524.3333333333334</v>
       </c>
       <c r="T108">
+        <v>523</v>
+      </c>
+      <c r="U108">
         <v>-1</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>-0.0001588108245458297</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>-0.0002542265158256285</v>
       </c>
-      <c r="W108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23">
+      <c r="X108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>522.5</v>
@@ -8707,21 +9034,24 @@
         <v>524.2</v>
       </c>
       <c r="T109">
+        <v>522.8333333333334</v>
+      </c>
+      <c r="U109">
         <v>-1.09375</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>-0.0001588360494296781</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>-0.0002542911633820477</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>-0.0009560229445506607</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>523</v>
@@ -8778,21 +9108,24 @@
         <v>524.0666666666667</v>
       </c>
       <c r="T110">
+        <v>522.8333333333334</v>
+      </c>
+      <c r="U110">
         <v>-1.125</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>-0.0001588612823283375</v>
       </c>
-      <c r="V110">
+      <c r="W110">
         <v>-0.0002543558438254934</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>0.000956937799043045</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>523.5</v>
@@ -8849,21 +9182,24 @@
         <v>523.9333333333333</v>
       </c>
       <c r="T111">
+        <v>523</v>
+      </c>
+      <c r="U111">
         <v>-1.03125</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>-9.5331913947172E-05</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>-0.0002544205571811675</v>
       </c>
-      <c r="W111">
+      <c r="X111">
         <v>0.0009560229445506607</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>523.5</v>
@@ -8920,21 +9256,24 @@
         <v>523.7666666666667</v>
       </c>
       <c r="T112">
+        <v>523.3333333333334</v>
+      </c>
+      <c r="U112">
         <v>-0.84375</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>-9.534100298724812E-05</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>-0.0003181066293420631</v>
       </c>
-      <c r="W112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23">
+      <c r="X112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>524</v>
@@ -8991,21 +9330,24 @@
         <v>523.6333333333333</v>
       </c>
       <c r="T113">
+        <v>523.6666666666666</v>
+      </c>
+      <c r="U113">
         <v>-0.59375</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>-6.356672917384731E-05</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>-0.0002545662826958228</v>
       </c>
-      <c r="W113">
+      <c r="X113">
         <v>0.0009551098376312517</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>524.5</v>
@@ -9062,21 +9404,24 @@
         <v>523.5666666666667</v>
       </c>
       <c r="T114">
+        <v>524</v>
+      </c>
+      <c r="U114">
         <v>-0.3125</v>
       </c>
-      <c r="U114">
-        <v>0</v>
-      </c>
       <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
         <v>-0.000127315551594509</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>0.0009541984732823749</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>524</v>
@@ -9133,21 +9478,24 @@
         <v>523.4666666666667</v>
       </c>
       <c r="T115">
+        <v>524.1666666666666</v>
+      </c>
+      <c r="U115">
         <v>-0.09375</v>
       </c>
-      <c r="U115">
-        <v>0</v>
-      </c>
       <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="W115">
         <v>-0.0001909976443624783</v>
       </c>
-      <c r="W115">
+      <c r="X115">
         <v>-0.0009532888465204614</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>523.5</v>
@@ -9204,21 +9552,24 @@
         <v>523.4</v>
       </c>
       <c r="T116">
+        <v>524</v>
+      </c>
+      <c r="U116">
         <v>0.09375</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>-9.535615523992291E-05</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>-0.0001273560876210444</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>-0.000954198473282486</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>523.5</v>
@@ -9275,21 +9626,24 @@
         <v>523.3666666666667</v>
       </c>
       <c r="T117">
+        <v>523.6666666666666</v>
+      </c>
+      <c r="U117">
         <v>0.28125</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>-9.536524890318976E-05</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>-6.368615462992722E-05</v>
       </c>
-      <c r="W117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:23">
+      <c r="X117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>524</v>
@@ -9346,21 +9700,24 @@
         <v>523.4</v>
       </c>
       <c r="T118">
+        <v>523.6666666666666</v>
+      </c>
+      <c r="U118">
         <v>0.40625</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>-6.358289620089774E-05</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>6.369021081464865E-05</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>0.0009551098376312517</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>524</v>
@@ -9417,21 +9774,24 @@
         <v>523.4666666666667</v>
       </c>
       <c r="T119">
+        <v>523.8333333333334</v>
+      </c>
+      <c r="U119">
         <v>0.4375</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>-9.538040886414301E-05</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>0.0001273723092600765</v>
       </c>
-      <c r="W119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23">
+      <c r="X119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>524</v>
@@ -9488,21 +9848,24 @@
         <v>523.5333333333333</v>
       </c>
       <c r="T120">
+        <v>524</v>
+      </c>
+      <c r="U120">
         <v>0.4375</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>-6.359300476943552E-05</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>0.0001273560876209334</v>
       </c>
-      <c r="W120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23">
+      <c r="X120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>523.5</v>
@@ -9559,21 +9922,24 @@
         <v>523.5666666666667</v>
       </c>
       <c r="T121">
+        <v>523.8333333333334</v>
+      </c>
+      <c r="U121">
         <v>0.34375</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>-9.539557364535156E-05</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>6.366993505690921E-05</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>-0.000954198473282486</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>524</v>
@@ -9630,21 +9996,24 @@
         <v>523.6333333333333</v>
       </c>
       <c r="T122">
+        <v>523.8333333333334</v>
+      </c>
+      <c r="U122">
         <v>0.21875</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>-6.360311655284612E-05</v>
       </c>
-      <c r="V122">
+      <c r="W122">
         <v>0.0001273317629082449</v>
       </c>
-      <c r="W122">
+      <c r="X122">
         <v>0.0009551098376312517</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>524</v>
@@ -9701,21 +10070,24 @@
         <v>523.7</v>
       </c>
       <c r="T123">
+        <v>523.8333333333334</v>
+      </c>
+      <c r="U123">
         <v>0.15625</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>-6.360716216635698E-05</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>0.00012731555159462</v>
       </c>
-      <c r="W123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:23">
+      <c r="X123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>524</v>
@@ -9772,21 +10144,24 @@
         <v>523.8</v>
       </c>
       <c r="T124">
+        <v>524</v>
+      </c>
+      <c r="U124">
         <v>0.15625</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>-3.180560414739464E-05</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>0.0001909490166123184</v>
       </c>
-      <c r="W124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23">
+      <c r="X124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>524.5</v>
@@ -9843,21 +10218,24 @@
         <v>523.9</v>
       </c>
       <c r="T125">
+        <v>524.1666666666666</v>
+      </c>
+      <c r="U125">
         <v>0.15625</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>-3.180661577606436E-05</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>0.00019091256204673</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>0.0009541984732823749</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>524</v>
@@ -9914,21 +10292,24 @@
         <v>523.9333333333333</v>
       </c>
       <c r="T126">
+        <v>524.1666666666666</v>
+      </c>
+      <c r="U126">
         <v>0.09375</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>-9.542288240738106E-05</v>
       </c>
-      <c r="V126">
+      <c r="W126">
         <v>6.362537379911437E-05</v>
       </c>
-      <c r="W126">
+      <c r="X126">
         <v>-0.0009532888465204614</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>524.5</v>
@@ -9985,21 +10366,24 @@
         <v>524</v>
       </c>
       <c r="T127">
+        <v>524.3333333333334</v>
+      </c>
+      <c r="U127">
         <v>0.09375</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>-9.543198880257453E-05</v>
       </c>
-      <c r="V127">
+      <c r="W127">
         <v>0.0001272426517369141</v>
       </c>
-      <c r="W127">
+      <c r="X127">
         <v>0.0009541984732823749</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>524</v>
@@ -10056,21 +10440,24 @@
         <v>524</v>
       </c>
       <c r="T128">
+        <v>524.1666666666666</v>
+      </c>
+      <c r="U128">
         <v>0.0625</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>-0.0001272547959150216</v>
       </c>
-      <c r="V128">
-        <v>0</v>
-      </c>
       <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
         <v>-0.0009532888465204614</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>524.5</v>
@@ -10127,21 +10514,24 @@
         <v>524</v>
       </c>
       <c r="T129">
+        <v>524.3333333333334</v>
+      </c>
+      <c r="U129">
         <v>0.15625</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>-6.36354958797325E-05</v>
       </c>
-      <c r="V129">
-        <v>0</v>
-      </c>
       <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
         <v>0.0009541984732823749</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>524</v>
@@ -10198,21 +10588,24 @@
         <v>524</v>
       </c>
       <c r="T130">
+        <v>524.1666666666666</v>
+      </c>
+      <c r="U130">
         <v>0.1875</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>-9.545931842036559E-05</v>
       </c>
-      <c r="V130">
-        <v>0</v>
-      </c>
       <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
         <v>-0.0009532888465204614</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>525</v>
@@ -10269,21 +10662,24 @@
         <v>524.1</v>
       </c>
       <c r="T131">
+        <v>524.5</v>
+      </c>
+      <c r="U131">
         <v>0.25</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>3.182281059066483E-05</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>0.0001908396946566082</v>
       </c>
-      <c r="W131">
+      <c r="X131">
         <v>0.001908396946564972</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>524.5</v>
@@ -10340,21 +10736,24 @@
         <v>524.1666666666666</v>
       </c>
       <c r="T132">
+        <v>524.5</v>
+      </c>
+      <c r="U132">
         <v>0.25</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>3.182179793159712E-05</v>
       </c>
-      <c r="V132">
+      <c r="W132">
         <v>0.0001272021878775398</v>
       </c>
-      <c r="W132">
+      <c r="X132">
         <v>-0.0009523809523809268</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>525.5</v>
@@ -10411,21 +10810,24 @@
         <v>524.2666666666667</v>
       </c>
       <c r="T133">
+        <v>525</v>
+      </c>
+      <c r="U133">
         <v>0.25</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>0.0001272831413481335</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>0.0001907790143085286</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>0.001906577693040923</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>526</v>
@@ -10482,21 +10884,24 @@
         <v>524.4</v>
       </c>
       <c r="T134">
+        <v>525.3333333333334</v>
+      </c>
+      <c r="U134">
         <v>0.375</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>0.0001909004136173564</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>0.0002543234994913934</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>0.0009514747859182826</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>525.5</v>
@@ -10553,21 +10958,24 @@
         <v>524.5</v>
       </c>
       <c r="T135">
+        <v>525.6666666666666</v>
+      </c>
+      <c r="U135">
         <v>0.40625</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>0.0001590533146711426</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>0.0001906941266209827</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>-0.0009505703422053591</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>525</v>
@@ -10624,21 +11032,24 @@
         <v>524.6</v>
       </c>
       <c r="T136">
+        <v>525.5</v>
+      </c>
+      <c r="U136">
         <v>0.46875</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>0.0001272224165898006</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>0.0001906577693040479</v>
       </c>
-      <c r="W136">
+      <c r="X136">
         <v>-0.0009514747859181716</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>525</v>
@@ -10695,21 +11106,24 @@
         <v>524.6666666666666</v>
       </c>
       <c r="T137">
+        <v>525.1666666666666</v>
+      </c>
+      <c r="U137">
         <v>0.4375</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>0.0001272062331052481</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>0.0001270809505653503</v>
       </c>
-      <c r="W137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:23">
+      <c r="X137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>524.5</v>
@@ -10766,21 +11180,24 @@
         <v>524.7</v>
       </c>
       <c r="T138">
+        <v>524.8333333333334</v>
+      </c>
+      <c r="U138">
         <v>0.46875</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>9.53925403035516E-05</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>6.353240152501272E-05</v>
       </c>
-      <c r="W138">
+      <c r="X138">
         <v>-0.0009523809523809268</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>523</v>
@@ -10837,21 +11254,24 @@
         <v>524.6333333333333</v>
       </c>
       <c r="T139">
+        <v>524.1666666666666</v>
+      </c>
+      <c r="U139">
         <v>0.28125</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>3.179448047818667E-05</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>-0.000127056730830466</v>
       </c>
-      <c r="W139">
+      <c r="X139">
         <v>-0.002859866539561495</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>523.5</v>
@@ -10908,21 +11328,24 @@
         <v>524.5666666666667</v>
       </c>
       <c r="T140">
+        <v>523.6666666666666</v>
+      </c>
+      <c r="U140">
         <v>0.1875</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>3.179346962123297E-05</v>
       </c>
-      <c r="V140">
+      <c r="W140">
         <v>-0.0001270728762944318</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>0.0009560229445506607</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>523.5</v>
@@ -10979,21 +11402,24 @@
         <v>524.5333333333333</v>
       </c>
       <c r="T141">
-        <v>0</v>
+        <v>523.3333333333334</v>
       </c>
       <c r="U141">
         <v>0</v>
       </c>
       <c r="V141">
+        <v>0</v>
+      </c>
+      <c r="W141">
         <v>-6.354451293144603E-05</v>
       </c>
-      <c r="W141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:23">
+      <c r="X141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>522.5</v>
@@ -11050,21 +11476,24 @@
         <v>524.4</v>
       </c>
       <c r="T142">
+        <v>523.1666666666666</v>
+      </c>
+      <c r="U142">
         <v>-0.34375</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>-6.358491765745544E-05</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>-0.0002541942043721157</v>
       </c>
-      <c r="W142">
+      <c r="X142">
         <v>-0.001910219675262614</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>522</v>
@@ -11121,21 +11550,24 @@
         <v>524.2666666666667</v>
       </c>
       <c r="T143">
+        <v>522.6666666666666</v>
+      </c>
+      <c r="U143">
         <v>-0.625</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>-0.0001271779219128577</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>-0.0002542588354945696</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>-0.000956937799043045</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>522</v>
@@ -11192,21 +11624,24 @@
         <v>524.1</v>
       </c>
       <c r="T144">
+        <v>522.1666666666666</v>
+      </c>
+      <c r="U144">
         <v>-0.875</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>-0.0001589926227423266</v>
       </c>
-      <c r="V144">
+      <c r="W144">
         <v>-0.0003179043743640753</v>
       </c>
-      <c r="W144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:23">
+      <c r="X144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>521</v>
@@ -11263,21 +11698,24 @@
         <v>523.9</v>
       </c>
       <c r="T145">
+        <v>521.6666666666666</v>
+      </c>
+      <c r="U145">
         <v>-1.15625</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>-0.000190821486499182</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>-0.0003816065636329524</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>-0.001915708812260553</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>522</v>
@@ -11334,21 +11772,24 @@
         <v>523.7</v>
       </c>
       <c r="T146">
+        <v>521.6666666666666</v>
+      </c>
+      <c r="U146">
         <v>-1.34375</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>-9.542895314451627E-05</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>-0.0003817522427942421</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>0.001919385796545159</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>523</v>
@@ -11405,21 +11846,24 @@
         <v>523.6</v>
       </c>
       <c r="T147">
+        <v>522</v>
+      </c>
+      <c r="U147">
         <v>-1.21875</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>-3.181268689955719E-05</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>-0.0001909490166126515</v>
       </c>
-      <c r="W147">
+      <c r="X147">
         <v>0.001915708812260553</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>522.5</v>
@@ -11476,21 +11920,24 @@
         <v>523.4</v>
       </c>
       <c r="T148">
+        <v>522.5</v>
+      </c>
+      <c r="U148">
         <v>-1.21875</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>-9.544109693626623E-05</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>-0.0003819709702063134</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>-0.0009560229445506607</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>521.5</v>
@@ -11547,21 +11994,24 @@
         <v>523.1</v>
       </c>
       <c r="T149">
+        <v>522.3333333333334</v>
+      </c>
+      <c r="U149">
         <v>-1.21875</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>-0.0001590836780147598</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>-0.000573175391669789</v>
       </c>
-      <c r="W149">
+      <c r="X149">
         <v>-0.00191387559808609</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>521.5</v>
@@ -11618,21 +12068,24 @@
         <v>522.8333333333334</v>
       </c>
       <c r="T150">
+        <v>521.8333333333334</v>
+      </c>
+      <c r="U150">
         <v>-1.0625</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>-0.0001591089896579856</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>-0.0005097814312113869</v>
       </c>
-      <c r="W150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:23">
+      <c r="X150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>520.5</v>
@@ -11689,21 +12142,24 @@
         <v>522.5333333333333</v>
       </c>
       <c r="T151">
+        <v>521.1666666666666</v>
+      </c>
+      <c r="U151">
         <v>-0.9375</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>-0.0001909611712282988</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>-0.0005737966209755641</v>
       </c>
-      <c r="W151">
+      <c r="X151">
         <v>-0.001917545541706644</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>520.5</v>
@@ -11760,21 +12216,24 @@
         <v>522.2333333333333</v>
       </c>
       <c r="T152">
+        <v>520.8333333333334</v>
+      </c>
+      <c r="U152">
         <v>-0.84375</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>-0.0002228305850894285</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>-0.0005741260525643499</v>
       </c>
-      <c r="W152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:23">
+      <c r="X152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>521</v>
@@ -11831,21 +12290,24 @@
         <v>522</v>
       </c>
       <c r="T153">
+        <v>520.6666666666666</v>
+      </c>
+      <c r="U153">
         <v>-0.59375</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>-0.0001910402139650991</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>-0.0004467990042765768</v>
       </c>
-      <c r="W153">
+      <c r="X153">
         <v>0.0009606147934677622</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>520.5</v>
@@ -11902,21 +12364,24 @@
         <v>521.8333333333334</v>
       </c>
       <c r="T154">
+        <v>520.6666666666666</v>
+      </c>
+      <c r="U154">
         <v>-0.53125</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>-0.0002229228368523239</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>-0.0003192848020433514</v>
       </c>
-      <c r="W154">
+      <c r="X154">
         <v>-0.0009596928982725794</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>520.5</v>
@@ -11973,21 +12438,24 @@
         <v>521.6333333333333</v>
       </c>
       <c r="T155">
+        <v>520.6666666666666</v>
+      </c>
+      <c r="U155">
         <v>-0.6875</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>-0.0002548257628846029</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>-0.0003832641328649355</v>
       </c>
-      <c r="W155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:23">
+      <c r="X155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>520.5</v>
@@ -12044,21 +12512,24 @@
         <v>521.4333333333333</v>
       </c>
       <c r="T156">
+        <v>520.5</v>
+      </c>
+      <c r="U156">
         <v>-0.75</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>-0.0002230293761550373</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>-0.0003834110805802649</v>
       </c>
-      <c r="W156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:23">
+      <c r="X156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>521</v>
@@ -12115,21 +12586,24 @@
         <v>521.3333333333334</v>
       </c>
       <c r="T157">
+        <v>520.6666666666666</v>
+      </c>
+      <c r="U157">
         <v>-0.65625</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>-0.0002230791293540424</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>-0.0001917790705106004</v>
       </c>
-      <c r="W157">
+      <c r="X157">
         <v>0.0009606147934677622</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>521</v>
@@ -12186,21 +12660,24 @@
         <v>521.2666666666667</v>
       </c>
       <c r="T158">
+        <v>520.8333333333334</v>
+      </c>
+      <c r="U158">
         <v>-0.625</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>-0.0001912533469335953</v>
       </c>
-      <c r="V158">
+      <c r="W158">
         <v>-0.0001278772378517923</v>
       </c>
-      <c r="W158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:23">
+      <c r="X158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>520</v>
@@ -12257,21 +12734,24 @@
         <v>521.1333333333333</v>
       </c>
       <c r="T159">
+        <v>520.6666666666666</v>
+      </c>
+      <c r="U159">
         <v>-0.5625</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>-0.0002869348976598518</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>-0.0002557871850620286</v>
       </c>
-      <c r="W159">
+      <c r="X159">
         <v>-0.001919385796545159</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>520</v>
@@ -12328,21 +12808,24 @@
         <v>521.0666666666667</v>
       </c>
       <c r="T160">
+        <v>520.3333333333334</v>
+      </c>
+      <c r="U160">
         <v>-0.5</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>-0.0002551264470452841</v>
       </c>
-      <c r="V160">
+      <c r="W160">
         <v>-0.0001279263144428056</v>
       </c>
-      <c r="W160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:23">
+      <c r="X160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>518.5</v>
@@ -12399,21 +12882,24 @@
         <v>520.8333333333334</v>
       </c>
       <c r="T161">
+        <v>519.5</v>
+      </c>
+      <c r="U161">
         <v>-0.65625</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>-0.0004146862738844126</v>
       </c>
-      <c r="V161">
+      <c r="W161">
         <v>-0.0004477993858751361</v>
       </c>
-      <c r="W161">
+      <c r="X161">
         <v>-0.002884615384615374</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>518</v>
@@ -12470,21 +12956,24 @@
         <v>520.5</v>
       </c>
       <c r="T162">
+        <v>518.8333333333334</v>
+      </c>
+      <c r="U162">
         <v>-0.71875</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>-0.0004148583099311542</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>-0.0006400000000000849</v>
       </c>
-      <c r="W162">
+      <c r="X162">
         <v>-0.0009643201542912649</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>519</v>
@@ -12541,21 +13030,24 @@
         <v>520.2666666666667</v>
       </c>
       <c r="T163">
+        <v>518.5</v>
+      </c>
+      <c r="U163">
         <v>-0.65625</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>-0.000415030488778001</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>-0.0004482869036183112</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>0.001930501930502038</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>518.5</v>
@@ -12612,21 +13104,24 @@
         <v>520.0666666666667</v>
       </c>
       <c r="T164">
+        <v>518.5</v>
+      </c>
+      <c r="U164">
         <v>-0.65625</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>-0.0004790801660811139</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>-0.0003844182470527091</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>-0.0009633911368015502</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>518</v>
@@ -12683,21 +13178,24 @@
         <v>519.8333333333334</v>
       </c>
       <c r="T165">
+        <v>518.5</v>
+      </c>
+      <c r="U165">
         <v>-0.8125</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>-0.000479309793896765</v>
       </c>
-      <c r="V165">
+      <c r="W165">
         <v>-0.0004486604281502826</v>
       </c>
-      <c r="W165">
+      <c r="X165">
         <v>-0.0009643201542912649</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>517</v>
@@ -12754,21 +13252,24 @@
         <v>519.6</v>
       </c>
       <c r="T166">
+        <v>517.8333333333334</v>
+      </c>
+      <c r="U166">
         <v>-1.03125</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>-0.000511508951406614</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>-0.0004488618146841761</v>
       </c>
-      <c r="W166">
+      <c r="X166">
         <v>-0.001930501930501927</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>517</v>
@@ -12825,21 +13326,24 @@
         <v>519.3666666666667</v>
       </c>
       <c r="T167">
+        <v>517.3333333333334</v>
+      </c>
+      <c r="U167">
         <v>-1.1875</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>-0.0005117707267145999</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>-0.0004490633820888323</v>
       </c>
-      <c r="W167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:23">
+      <c r="X167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>516</v>
@@ -12896,21 +13400,24 @@
         <v>519.0333333333333</v>
       </c>
       <c r="T168">
+        <v>516.6666666666666</v>
+      </c>
+      <c r="U168">
         <v>-1.40625</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>-0.0005440348182282895</v>
       </c>
-      <c r="V168">
+      <c r="W168">
         <v>-0.0006418073294397475</v>
       </c>
-      <c r="W168">
+      <c r="X168">
         <v>-0.001934235976789211</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>517.5</v>
@@ -12967,21 +13474,24 @@
         <v>518.8333333333334</v>
       </c>
       <c r="T169">
+        <v>516.8333333333334</v>
+      </c>
+      <c r="U169">
         <v>-1.3125</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>-0.0003522141462007911</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>-0.0003853317063771122</v>
       </c>
-      <c r="W169">
+      <c r="X169">
         <v>0.002906976744186052</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>518.5</v>
@@ -13038,21 +13548,24 @@
         <v>518.7</v>
       </c>
       <c r="T170">
+        <v>517.3333333333334</v>
+      </c>
+      <c r="U170">
         <v>-1.125</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>-0.0003203074951955154</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>-0.0002569868294249877</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>0.001932367149758418</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>518</v>
@@ -13109,21 +13622,24 @@
         <v>518.5333333333333</v>
       </c>
       <c r="T171">
+        <v>518</v>
+      </c>
+      <c r="U171">
         <v>-1.09375</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>-0.0003524511374558559</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>-0.0003213161107898932</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>-0.0009643201542912649</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>518</v>
@@ -13180,21 +13696,24 @@
         <v>518.3333333333334</v>
       </c>
       <c r="T172">
+        <v>518.1666666666666</v>
+      </c>
+      <c r="U172">
         <v>-1</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>-0.0002884707843199275</v>
       </c>
-      <c r="V172">
+      <c r="W172">
         <v>-0.0003857032656208181</v>
       </c>
-      <c r="W172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:23">
+      <c r="X172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>518.5</v>
@@ -13251,21 +13770,24 @@
         <v>518.1666666666666</v>
       </c>
       <c r="T173">
+        <v>518.1666666666666</v>
+      </c>
+      <c r="U173">
         <v>-0.78125</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>-0.0002244309073421435</v>
       </c>
-      <c r="V173">
+      <c r="W173">
         <v>-0.0003215434083603252</v>
       </c>
-      <c r="W173">
+      <c r="X173">
         <v>0.0009652509652509078</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>519</v>
@@ -13322,21 +13844,24 @@
         <v>518.1</v>
       </c>
       <c r="T174">
+        <v>518.5</v>
+      </c>
+      <c r="U174">
         <v>-0.40625</v>
       </c>
-      <c r="U174">
+      <c r="V174">
         <v>-0.0001924125324697101</v>
       </c>
-      <c r="V174">
+      <c r="W174">
         <v>-0.0001286587327113953</v>
       </c>
-      <c r="W174">
+      <c r="X174">
         <v>0.0009643201542912649</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>520</v>
@@ -13393,21 +13918,24 @@
         <v>518.1</v>
       </c>
       <c r="T175">
+        <v>519.1666666666666</v>
+      </c>
+      <c r="U175">
         <v>-0.03125</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>-6.414985405900353E-05</v>
       </c>
-      <c r="V175">
-        <v>0</v>
-      </c>
       <c r="W175">
+        <v>0</v>
+      </c>
+      <c r="X175">
         <v>0.0019267822736031</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>520</v>
@@ -13464,21 +13992,24 @@
         <v>518.2</v>
       </c>
       <c r="T176">
+        <v>519.6666666666666</v>
+      </c>
+      <c r="U176">
         <v>0.46875</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <v>-0.0001283079390538289</v>
       </c>
-      <c r="V176">
+      <c r="W176">
         <v>0.0001930129318665763</v>
       </c>
-      <c r="W176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:23">
+      <c r="X176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>520.5</v>
@@ -13535,21 +14066,24 @@
         <v>518.3666666666667</v>
       </c>
       <c r="T177">
+        <v>520.1666666666666</v>
+      </c>
+      <c r="U177">
         <v>0.71875</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>-0.0001604055051169784</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>0.0003216261417726685</v>
       </c>
-      <c r="W177">
+      <c r="X177">
         <v>0.0009615384615384581</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>519</v>
@@ -13606,21 +14140,24 @@
         <v>518.3666666666667</v>
       </c>
       <c r="T178">
+        <v>519.8333333333334</v>
+      </c>
+      <c r="U178">
         <v>0.71875</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>-0.0002246037348390129</v>
       </c>
-      <c r="V178">
-        <v>0</v>
-      </c>
       <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178">
         <v>-0.002881844380403509</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>521</v>
@@ -13677,15 +14214,18 @@
         <v>518.5333333333333</v>
       </c>
       <c r="T179">
+        <v>520.1666666666666</v>
+      </c>
+      <c r="U179">
         <v>0.96875</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>-3.209345614452186E-05</v>
       </c>
-      <c r="V179">
+      <c r="W179">
         <v>0.0003215227316570868</v>
       </c>
-      <c r="W179">
+      <c r="X179">
         <v>0.003853564547206201</v>
       </c>
     </row>
